--- a/MyGame/红警3数据大全new.xlsx
+++ b/MyGame/红警3数据大全new.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="460" windowWidth="37340" windowHeight="21140" activeTab="1"/>
+    <workbookView xWindow="1060" yWindow="460" windowWidth="37340" windowHeight="21140"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2470" uniqueCount="1151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2478" uniqueCount="1160">
   <si>
     <r>
       <rPr>
@@ -3142,9 +3142,6 @@
     <t>经济系统。每家只要有一个展开的基地，每过5秒增加75资源。矿和矿场上的转盘取消，矿左右各拓宽一格，且上面的吊车取消。矿前的5格分别可以停一辆矿车，而5矿车对应1矿场正好。一矿车采一次矿总需要15s时间，在矿场停3s。矿车一次带250资源，每矿点90000资源。苏盟旭三国矿车价格为1000,1000,900，矿场价格为2000,2200,2500，矿车采矿方式为，机械爪，传送通道，磁力无人机。初始基地处一般只有1矿，且有一科技厂。</t>
   </si>
   <si>
-    <t>经济系统。每家从开始每过5秒增加50资源。盟苏帝分别采矿方式为矿车、输送通道、采矿无人机。苏联三条线三个管道，每1s加钱一次20，可用技能防护罩,4倍装甲，采集间隔2s，矿场爆掉后管道依然在；帝国为6个无人机甲虫（维修变成蝴蝶），地面漂浮单位，一次携带100矿10s一循环，HP减半，技能为一直施放的镭射光防御炮，同原机枪防御，属性光棱，攻击间隔加倍；盟军一矿可以3个矿车采集，矿车移动速度略有调整，右进左出循环，10s一回合一次200，技能不变。每矿点75000资源。苏盟旭三国采集装置价格为1200,950,600，旭日建造时间减半，矿场价格为2000,2200,1900,HP为3500,3000,3000，建造/展开时间为25s，都只带一个采集装置，其余采集装置除了盟军都只能从矿厂建造。初始基地处一般只有1矿，且有一科技厂。</t>
-  </si>
-  <si>
     <t>科技厂，其数量决定能否生产高级兵种。高级兵需要1-3个，如果4个所有兵以2%每5s回血，5个HP+15%，6个支援cd-20%。由工程师占领，后可以在周围2格造建筑，可以维修，但需开启时间，自动开始，苏联和盟军的时间为15s+15s*拥有数量，帝国的开启时间为5s+25s*拥有数量。红血(1/4)后无敌且不能被占领，可由工程师修好同时占领。hp2400，油井的修正。</t>
   </si>
   <si>
@@ -3187,19 +3184,10 @@
     <t>帝国：1.升级价格+250，时间+5s，一科技站，一次升级所有同种建筑，保留一个升级就不会消失. 2.支援技能中间最后两个为加速生产的两个级别，使用技能，可以加快所有建造（建筑的展开不算）的速度100%，持续15、30s，但要花费750、1000，cd60s,中间第二个和第三个是气球的一、二级，每个气球伤害为135（对矿车减半），右边后三个为天皇系列技能，速度均为75%，光荣退伍和高级火箭对调；无人机防御和帽子对调，升级海军后所有坐落于海中的炮塔和波能塔HP增加20%；3.建筑和防御两列的纳米核心用共同的cd；</t>
   </si>
   <si>
-    <t>苏联指挥官：1.工程师搭建碉堡时间-4s、电船和电塔击中目标时有10%的几率可使目标不能移动和攻击持续2s、兵营在重工后可以生产迫击炮摩托，数值同上表，速度为120，价格为800，需要2个科技站、三个科技站后所有兵营出的兵除了工程师均不会被一击必杀（即HP在20以上不能被杀死只能减血到1）、断电时电塔仍可攻击只是攻击力为225，此时用一个磁暴步兵给电塔充电即可回复攻击力；2.恐怖机器人在敌人机械中可使其移动速度-10%、镰刀大电后跳跃落地后的1s可以miss掉所有攻击、铁锤可以移动中吸血、无畏的第二技能只消耗5%HP但cd为7s、现金奖励的持续时间增为60s；3.动员兵可游泳（速度40且水中不能用枪）、双刃价格只需要一个科技站、飞艇非战斗状态（不攻击不用技能视野里没有敌人）自动回血，以50/s代替4/s、起重机修理范围增加100，效率提高50%，可以在无聊时修理建筑、铁幕cd-10s；</t>
-  </si>
-  <si>
     <t>车辆（包括飞机和船，除了蜘蛛）前装甲（前面从中间分开两边各45°的范围）侧装甲和背装甲（后面从中间分开两边各45°的范围）惩罚是100%、105%和120%。只在空对空、地对地时有效。</t>
   </si>
   <si>
     <t>驻军射程加权由100%降为75%，视野加成由150%降至100%</t>
-  </si>
-  <si>
-    <t>停电时雷达关闭，停电时士兵将失去任何缓慢回血的能力</t>
-  </si>
-  <si>
-    <t>建造中的围墙不再会阻挡攻击</t>
   </si>
   <si>
     <t>三方的基地车的造价由 5000 降至 3500，HP 降至3750</t>
@@ -3372,9 +3360,6 @@
     <t>第二技能击中目标会使机械目标2s不能移动攻击技能</t>
   </si>
   <si>
-    <t>建造时间+2s  第二技能为：让500范围内一友军非空中装甲（可以自己）攻击速度为原来的3倍，但每3秒减少10%HP（一上来直接减少10%HP，然后每隔3s一减），持续12s或到不能减少HP否则会死，cd6s。动画从中间的塔楼上发出类似铁锤坦克的激光中间以像盟军基地发射波的弧度放置到单位身上，黄色，持续3s，然后单位中轴线从后三分之一处出原无畏第二技能上的火。</t>
-  </si>
-  <si>
     <t>无最小射程</t>
   </si>
   <si>
@@ -3426,9 +3411,6 @@
     <t>HP+800 40s 需要1个科技站</t>
   </si>
   <si>
-    <t>HP+800 60s 需要2个科技站 建造完成后可被动增加一个科技点数，但不能超越当前科技等级；显示为n+1</t>
-  </si>
-  <si>
     <t>盟军中继指挥站可使用第二技能(需要有超时空传送仪）：使半径100范围内的所有单位瞬间移动到使用技能的中继站边上，移动时间为（2+移动距离/300）s，移动时间内所有兵力不能移动攻击技能但能被攻击，传送中打掉中继站传送终止，所有中继站同cd，cd60s，花费1000</t>
   </si>
   <si>
@@ -3550,10 +3532,6 @@
   </si>
   <si>
     <t>无威胁计量器，威胁显示为技能进度的颜色，获得威胁的方式为：杀死对方一个单位获得造价100%（用支援技能杀死敌人和消灭敌人建筑不增加威胁）、自己死一个（只能是敌人杀死，自己杀自己或其他因素死亡则无效）获得造价175%、杀死被2、3、4级兵攻击过2s内的敌人获得造价150%、200%、250%，让2、3、4级兵杀死的敌人获得造价200%、300%、400%。</t>
-    <phoneticPr fontId="27" type="noConversion"/>
-  </si>
-  <si>
-    <t>科技厂，生产高级兵时需要。每个科技厂提供一个科技点数，高级兵种建造时会显示需要几个科技点。某种兵建造并使用科技点时其他兵不能用。由1个工程师进入占领,需要8s。hp2500，普通建筑的修正（维和伤害减半）。可使用技能，花费900获得一个额外的科技点。持续20s，cd20s，所有科技厂同cd；科技点数消失，不影响当前正在建造的单位。所有科技建筑（可被工程师占据的）只剩10%hp时候失去控制权并处于无敌状态，占据期间可以维修</t>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
@@ -3656,40 +3634,502 @@
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
-    <t>帝国指挥官：1.自爆无人机附身的单位速度减少为1/4、坦克杀手在道场科技升级后钻地时是隐形的（在敌人300范围内才被敌人显示）、工程师能让150范围内的机械单位cd速度+10%、气球类支援技能伤害+15、鬼王HP低于25%时，可一次攻击三个单位；2.两种防御塔的展开速度各减少5s、天狗和VX第二技能cd中可以再用一次，但之后10s内速度降低25%，攻击速度降低50%（可以再用一次时，技能原灰色部分为红色）、忍者的第二技能放出的幻影HP为120持续45s、火箭天使的第二技能半径为75、每次额外增加的资源从50上升为60；3.迷你潜艇生产时间-2s、1个科技场时帝国武士冲锋时被碾压等级上升至31、围墙的建造为普通造两次的效果，点击围墙后，在地面点两下后才开始建造，鼠标上会显示1和2，围墙建造时间减少为5s、幕府攻击的单位会被标记4s，此时杀死获得的经验值+20%、纳米蜂巢价格为1500，矿厂后就可以建造</t>
+    <t>苏联指挥官：</t>
+  </si>
+  <si>
+    <t>3.动员兵可游泳（速度40且水中不能用枪）、双刃价格只需要一个科技站、飞艇非战斗状态（不攻击不用技能视野里没有敌人）自动回血，以50/s代替4/s、起重机修理范围增加100，效率提高50%，可以在无聊时修理建筑、铁幕cd-20s价格为2000；</t>
+  </si>
+  <si>
+    <t>盟军指挥官：</t>
+  </si>
+  <si>
+    <t>帝国指挥官：</t>
+  </si>
+  <si>
+    <t>停电时雷达关闭</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>建造中的围墙和建筑不再会阻挡攻击</t>
+    <rPh sb="6" eb="7">
+      <t>he</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>jian'zhu</t>
+    </rPh>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.工程师搭建碉堡时间-4s、电船和电塔伤害提高10%、兵营在重工后可以生产迫击炮摩托，数值同上表，速度为120，价格为800，需要2个科技站、每有一个科技站，所有兵营出的兵获得的经验增加10%、电塔可以对空；</t>
+    <rPh sb="20" eb="21">
+      <t>shang'hai</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ti'gao</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>mei</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>you</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>yi'ge</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>ke'ji</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>zhan</t>
+    </rPh>
+    <rPh sb="87" eb="88">
+      <t>huo'de</t>
+    </rPh>
+    <rPh sb="89" eb="90">
+      <t>d</t>
+    </rPh>
+    <rPh sb="90" eb="91">
+      <t>jing'y</t>
+    </rPh>
+    <rPh sb="92" eb="93">
+      <t>zeng'j</t>
+    </rPh>
+    <rPh sb="98" eb="99">
+      <t>dian'ta</t>
+    </rPh>
+    <rPh sb="100" eb="101">
+      <t>ke'yi</t>
+    </rPh>
+    <rPh sb="102" eb="103">
+      <t>dui'kong</t>
+    </rPh>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.激流HP+50、守护坦克的第二技能使伤害增加100%（升级高科技后+125%）、驱逐舰的第二技能使敌军移动减少15%、顶级许可下可以使用平息者，数值同上，但移动状态下没有机枪不可攻击、超级武器价格为3000；</t>
+    <rPh sb="61" eb="62">
+      <t>ding'ji'xu'ke</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>xia</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>ke'yi</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>shi'yong</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>ping'xi'zhe</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>zhe</t>
+    </rPh>
+    <rPh sb="74" eb="75">
+      <t>shu'zhi</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>tong'sh</t>
+    </rPh>
+    <rPh sb="79" eb="80">
+      <t>dan</t>
+    </rPh>
+    <rPh sb="80" eb="81">
+      <t>yi'dong</t>
+    </rPh>
+    <rPh sb="82" eb="83">
+      <t>zhuang't</t>
+    </rPh>
+    <rPh sb="84" eb="85">
+      <t>xia</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>mei'you</t>
+    </rPh>
+    <rPh sb="87" eb="88">
+      <t>ji'qiang</t>
+    </rPh>
+    <rPh sb="89" eb="90">
+      <t>bu'ke</t>
+    </rPh>
+    <rPh sb="91" eb="92">
+      <t>gong'ji</t>
+    </rPh>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.维和、世纪轰炸机使用返航技能时+50%速度并减少20%伤害、航空母舰装填弹药时间由15秒减少为10秒、冷冻直升机第二技能不再需要顶级许可的支持、外科手术式打击延迟为0，cd分别-5s、主基地（包括打包状态）的500范围内所有敌军非建筑不能自动补血且1本2本和3本分别会让敌军减血2，4，6/s。</t>
+    <rPh sb="58" eb="59">
+      <t>di'er'ji'neng</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>bu'zai</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>xu'yao</t>
+    </rPh>
+    <rPh sb="66" eb="67">
+      <t>ding'ji</t>
+    </rPh>
+    <rPh sb="68" eb="69">
+      <t>xu'ke</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>d</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>zhi'chi</t>
+    </rPh>
+    <rPh sb="98" eb="99">
+      <t>bao'k</t>
+    </rPh>
+    <rPh sb="100" eb="101">
+      <t>da'bao</t>
+    </rPh>
+    <rPh sb="102" eb="103">
+      <t>zhuang't</t>
+    </rPh>
+    <rPh sb="116" eb="117">
+      <t>fei</t>
+    </rPh>
+    <rPh sb="117" eb="118">
+      <t>jian'zhu</t>
+    </rPh>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">建造时间+2s </t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.恐怖机器人在敌人机械中可使其移动速度-15%、镰刀大电后跳跃落地后的1s可以miss掉所有攻击、可使用研磨者，数值同上，价格1800，建造18s，2科技站，技能cd20s，无畏的第二技能只消耗40HP、现金奖励的持续时间增为60s；</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.军犬和海豚第二技能的cd减少25%、多功能车被消灭时有80%几率使里面单位减掉80%总血量逃脱出来、IFV装载工程师时为搭载修理无人机，射程为125，每秒修理30，IFV的修理之间不能叠加，能维修自己、幻影被动第二技能范围的单位有5%的几率miss掉敌人的攻击、可使用世纪轰炸机建造时间25s，单发伤害为200，需要1个科技站；</t>
+    <rPh sb="133" eb="134">
+      <t>ke</t>
+    </rPh>
+    <rPh sb="134" eb="135">
+      <t>shi'yong</t>
+    </rPh>
+    <rPh sb="136" eb="137">
+      <t>shi'ji</t>
+    </rPh>
+    <rPh sb="138" eb="139">
+      <t>hong'zha'ji</t>
+    </rPh>
+    <rPh sb="141" eb="142">
+      <t>jian'z</t>
+    </rPh>
+    <rPh sb="143" eb="144">
+      <t>shi'jian</t>
+    </rPh>
+    <rPh sb="149" eb="150">
+      <t>dan'fa</t>
+    </rPh>
+    <rPh sb="151" eb="152">
+      <t>shang'hai</t>
+    </rPh>
+    <rPh sb="153" eb="154">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="158" eb="159">
+      <t>xu'y</t>
+    </rPh>
+    <rPh sb="161" eb="162">
+      <t>g</t>
+    </rPh>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.迷你潜艇生产时间-2s、一个科技站后帝国武士冲锋时被碾压等级上升至31、可以建造钢铁浪人，数值同上，1个科技站，但拥有数量不能超过科技站的数量、幕府攻击的单位会被标记4s，此时杀死获得的经验值+20%、纳米蜂巢价格为1500，矿厂后就可以建造</t>
+    <rPh sb="14" eb="15">
+      <t>yi'ge</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ke'ji</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>zhan</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>hou</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ke'yi</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>jian'z</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>gang't</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>lang'r</t>
+    </rPh>
     <rPh sb="47" eb="48">
+      <t>shu'zhi</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>tong</t>
+    </rPh>
+    <rPh sb="50" eb="51">
+      <t>shang</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>ge</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>ke'ji'zhan</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>dan</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>yong'you</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t>shu'l</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>bu'neng</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>chao'g</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>ke'ji'zhan</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>d</t>
+    </rPh>
+    <rPh sb="71" eb="72">
+      <t>shu'l</t>
+    </rPh>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>经济系统。每家从开始每过5秒增加50资源。盟苏帝分别采矿方式为矿车、输送通道、采矿无人机。苏联三条线三个管道，每1s加钱一次20，可用技能防护罩,4倍装甲，矿场爆掉后管道依然在；帝国为6个无人机甲虫（维修变成蝴蝶），地面漂浮单位，一次携带100矿10s一循环，HP减半，技能为一直施放的镭射光防御炮，同原机枪防御，属性光棱，攻击间隔加倍；盟军一矿可以3个矿车采集，矿车移动速度略有调整，右进左出循环，10s一回合一次200，技能不变。每矿点75000资源。苏盟旭三国采集装置价格为1200,950,600，旭日建造时间减半，矿场价格为2000,2200,1900,HP为3500,3000,3000，建造/展开时间为25s，都只带一个采集装置，其余采集装置除了盟军都只能从矿厂建造。初始基地处一般只有1矿，且有一科技厂。</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.在道场科技升级后，自爆无人机不附身时和坦克杀手钻地时是隐形的（在敌人150范围内才被敌人显示）、工程师新二技能，变成一种状态，不能移动但能让150范围内的单位cd速度+10%、纳米防护罩吸收伤害增加10%、自爆的伤害增加10%，可以建造巨型堡垒，数值同上，只能造一个，价格为3000，消耗电量100，没有电时不能移动不能攻击不能使用二技能且会以每秒减少HP100；</t>
+    <rPh sb="16" eb="17">
+      <t>bu</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>he</t>
+    </rPh>
+    <rPh sb="33" eb="34">
       <t>zai</t>
     </rPh>
-    <rPh sb="48" eb="49">
+    <rPh sb="34" eb="35">
       <t>di'ren</t>
     </rPh>
-    <rPh sb="53" eb="54">
+    <rPh sb="39" eb="40">
       <t>fan'wei</t>
     </rPh>
-    <rPh sb="55" eb="56">
+    <rPh sb="41" eb="42">
       <t>nei</t>
     </rPh>
-    <rPh sb="56" eb="57">
+    <rPh sb="42" eb="43">
       <t>cai</t>
     </rPh>
-    <rPh sb="57" eb="58">
+    <rPh sb="43" eb="44">
       <t>bei</t>
     </rPh>
-    <rPh sb="58" eb="59">
+    <rPh sb="44" eb="45">
       <t>di'ren</t>
     </rPh>
-    <rPh sb="60" eb="61">
+    <rPh sb="46" eb="47">
       <t>xian'shi</t>
     </rPh>
+    <rPh sb="53" eb="54">
+      <t>xin</t>
+    </rPh>
+    <rPh sb="54" eb="55">
+      <t>er'ji'neng</t>
+    </rPh>
+    <rPh sb="58" eb="59">
+      <t>bian'ch</t>
+    </rPh>
+    <rPh sb="60" eb="61">
+      <t>yi'zhong</t>
+    </rPh>
+    <rPh sb="62" eb="63">
+      <t>zhuang't</t>
+    </rPh>
+    <rPh sb="65" eb="66">
+      <t>bu'neng</t>
+    </rPh>
+    <rPh sb="67" eb="68">
+      <t>yi'dong</t>
+    </rPh>
+    <rPh sb="69" eb="70">
+      <t>dan</t>
+    </rPh>
+    <rPh sb="90" eb="91">
+      <t>na'mi</t>
+    </rPh>
+    <rPh sb="92" eb="93">
+      <t>fang'hu</t>
+    </rPh>
+    <rPh sb="94" eb="95">
+      <t>zhao</t>
+    </rPh>
+    <rPh sb="95" eb="96">
+      <t>xi'shou</t>
+    </rPh>
+    <rPh sb="97" eb="98">
+      <t>shang'hai</t>
+    </rPh>
+    <rPh sb="99" eb="100">
+      <t>zeng'j</t>
+    </rPh>
+    <rPh sb="105" eb="106">
+      <t>zi'bao</t>
+    </rPh>
+    <rPh sb="107" eb="108">
+      <t>d</t>
+    </rPh>
+    <rPh sb="108" eb="109">
+      <t>shang'hai</t>
+    </rPh>
+    <rPh sb="110" eb="111">
+      <t>zeng'j</t>
+    </rPh>
+    <rPh sb="116" eb="117">
+      <t>ke'yi</t>
+    </rPh>
+    <rPh sb="118" eb="119">
+      <t>jian'z</t>
+    </rPh>
+    <rPh sb="120" eb="121">
+      <t>ju'xing'bao'lei</t>
+    </rPh>
+    <rPh sb="125" eb="126">
+      <t>shu'zhi</t>
+    </rPh>
+    <rPh sb="127" eb="128">
+      <t>tong'sh</t>
+    </rPh>
+    <rPh sb="130" eb="131">
+      <t>zhi'neng</t>
+    </rPh>
+    <rPh sb="132" eb="133">
+      <t>zao</t>
+    </rPh>
+    <rPh sb="133" eb="134">
+      <t>yi'ge</t>
+    </rPh>
+    <rPh sb="136" eb="137">
+      <t>jia'ge</t>
+    </rPh>
+    <rPh sb="138" eb="139">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="144" eb="145">
+      <t>xiao'hao</t>
+    </rPh>
+    <rPh sb="146" eb="147">
+      <t>dian'l</t>
+    </rPh>
+    <rPh sb="152" eb="153">
+      <t>mei'you</t>
+    </rPh>
+    <rPh sb="154" eb="155">
+      <t>dian</t>
+    </rPh>
+    <rPh sb="155" eb="156">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="156" eb="157">
+      <t>bu'neng</t>
+    </rPh>
+    <rPh sb="158" eb="159">
+      <t>yi'dong</t>
+    </rPh>
+    <rPh sb="160" eb="161">
+      <t>bu'neng</t>
+    </rPh>
+    <rPh sb="162" eb="163">
+      <t>gong'ji</t>
+    </rPh>
+    <rPh sb="164" eb="165">
+      <t>bu'neng</t>
+    </rPh>
+    <rPh sb="166" eb="167">
+      <t>shi'yong</t>
+    </rPh>
+    <rPh sb="168" eb="169">
+      <t>er'ji'neng</t>
+    </rPh>
+    <rPh sb="171" eb="172">
+      <t>qie</t>
+    </rPh>
+    <rPh sb="172" eb="173">
+      <t>hui</t>
+    </rPh>
+    <rPh sb="173" eb="174">
+      <t>yi</t>
+    </rPh>
+    <rPh sb="174" eb="175">
+      <t>mei'miao</t>
+    </rPh>
+    <rPh sb="176" eb="177">
+      <t>jian'shao</t>
+    </rPh>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
   <si>
-    <t>盟军指挥官：1.激流HP+50、守护坦克的第二技能使伤害增加100%（升级高科技后也+100%）、驱逐舰的第二技能使敌军移动减少10%、雅典娜可以在水中移动，在水中速度不减但不能倒退不能用第二技能、超级武器cd为9min但价格为3000；2.军犬和海豚第二技能的cd减少25%、多功能车被消灭时有80%几率使里面单位减掉80%总血量逃脱出来、间谍价格-200、IFV装载工程师时为搭载修理无人机，射程为125，每秒修理30，IFV的修理之间不能叠加，能维修自己、幻影被动第二技能范围的单位有5%的几率miss掉敌人的攻击；3.维和、世纪轰炸机使用返航技能时+50%速度并减少20%伤害、航空母舰装填弹药时间由15秒减少为10秒、冷冻直升机的速度+30、外科手术式打击延迟为0，cd分别-5s、主基地的建造范围内所有敌军不能自动补血且1本2本和3本分别会让敌军减血1，2，4/s。</t>
-    <rPh sb="233" eb="234">
-      <t>bei'dong</t>
+    <t>HP+800 60s 需要2个科技站 建造完成后可被动增加一个科技点数</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>科技厂，生产高级兵时需要。每个科技厂提供一个科技点数，高级兵种建造时会显示需要几个科技点。某种兵建造并使用科技点时其他兵不能用。由1个工程师进入占领,需要8s。hp2500，普通建筑的修正（维和伤害减半）。可使用技能，花费1000获得一个额外的科技点。持续20s，cd20s，所有科技厂同cd；科技点数消失，不影响当前正在建造的单位。所有科技建筑（可被工程师占据的）只剩10%hp时候失去控制权并处于无敌状态，占据期间可以维修</t>
+    <phoneticPr fontId="27" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.两种防御塔的展开速度各减少5s、有纳米主机核心后，天狗和VX和海翼第二技能cd中可以再用一次，但之后10s内速度降低30%且不能攻击、忍者的第二技能放出的幻影持续60s、火箭天使的第二技能射程提高至200、每次额外增加的资源从50上升为90；</t>
+    <rPh sb="18" eb="19">
+      <t>you</t>
     </rPh>
-    <rPh sb="239" eb="240">
-      <t>fan'wei</t>
+    <rPh sb="19" eb="20">
+      <t>na'mi</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>zhu'ji</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>he'xin</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>hou</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>he</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>hai'yi</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>qie</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t>bu'neng</t>
+    </rPh>
+    <rPh sb="96" eb="97">
+      <t>she'cheng</t>
+    </rPh>
+    <rPh sb="98" eb="99">
+      <t>ti'gao</t>
+    </rPh>
+    <rPh sb="100" eb="101">
+      <t>zhi</t>
     </rPh>
     <phoneticPr fontId="27" type="noConversion"/>
   </si>
@@ -4125,16 +4565,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -4143,6 +4573,12 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4156,6 +4592,10 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -5331,10 +5771,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV384"/>
+  <dimension ref="A1:IV388"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A172" workbookViewId="0">
-      <selection activeCell="B197" sqref="B197"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A298" workbookViewId="0">
+      <selection activeCell="B325" sqref="B325"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5375,13 +5815,13 @@
   <sheetData>
     <row r="1" spans="1:37" ht="33.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="2"/>
-      <c r="B1" s="92" t="s">
+      <c r="B1" s="101" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="93"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -5419,20 +5859,20 @@
       <c r="B2" s="95" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+      <c r="H2" s="96"/>
+      <c r="I2" s="96"/>
       <c r="J2" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="94"/>
-      <c r="L2" s="94"/>
-      <c r="M2" s="94"/>
-      <c r="N2" s="94"/>
+      <c r="K2" s="96"/>
+      <c r="L2" s="96"/>
+      <c r="M2" s="96"/>
+      <c r="N2" s="96"/>
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
@@ -7804,12 +8244,12 @@
       <c r="B45" s="95" t="s">
         <v>121</v>
       </c>
-      <c r="C45" s="94"/>
-      <c r="D45" s="94"/>
-      <c r="E45" s="94"/>
-      <c r="F45" s="94"/>
-      <c r="G45" s="94"/>
-      <c r="H45" s="94"/>
+      <c r="C45" s="96"/>
+      <c r="D45" s="96"/>
+      <c r="E45" s="96"/>
+      <c r="F45" s="96"/>
+      <c r="G45" s="96"/>
+      <c r="H45" s="96"/>
       <c r="I45" s="45"/>
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
@@ -9957,11 +10397,11 @@
       <c r="B86" s="95" t="s">
         <v>238</v>
       </c>
-      <c r="C86" s="94"/>
-      <c r="D86" s="94"/>
-      <c r="E86" s="94"/>
-      <c r="F86" s="94"/>
-      <c r="G86" s="94"/>
+      <c r="C86" s="96"/>
+      <c r="D86" s="96"/>
+      <c r="E86" s="96"/>
+      <c r="F86" s="96"/>
+      <c r="G86" s="96"/>
       <c r="H86" s="2"/>
       <c r="I86" s="2"/>
       <c r="J86" s="2"/>
@@ -11370,7 +11810,7 @@
       <c r="AD101" s="15">
         <v>100</v>
       </c>
-      <c r="AE101" s="96"/>
+      <c r="AE101" s="92"/>
       <c r="AF101" s="2"/>
       <c r="AG101" s="4"/>
       <c r="AH101" s="4"/>
@@ -11463,7 +11903,7 @@
       <c r="AD102" s="21">
         <v>100</v>
       </c>
-      <c r="AE102" s="96"/>
+      <c r="AE102" s="92"/>
       <c r="AF102" s="2"/>
       <c r="AG102" s="4"/>
       <c r="AH102" s="4"/>
@@ -12502,11 +12942,11 @@
       <c r="B119" s="95" t="s">
         <v>388</v>
       </c>
-      <c r="C119" s="94"/>
-      <c r="D119" s="94"/>
-      <c r="E119" s="94"/>
-      <c r="F119" s="94"/>
-      <c r="G119" s="94"/>
+      <c r="C119" s="96"/>
+      <c r="D119" s="96"/>
+      <c r="E119" s="96"/>
+      <c r="F119" s="96"/>
+      <c r="G119" s="96"/>
       <c r="H119" s="45"/>
       <c r="I119" s="45"/>
       <c r="J119" s="45"/>
@@ -16519,11 +16959,11 @@
       <c r="B169" s="95" t="s">
         <v>614</v>
       </c>
-      <c r="C169" s="94"/>
-      <c r="D169" s="94"/>
-      <c r="E169" s="94"/>
-      <c r="F169" s="94"/>
-      <c r="G169" s="94"/>
+      <c r="C169" s="96"/>
+      <c r="D169" s="96"/>
+      <c r="E169" s="96"/>
+      <c r="F169" s="96"/>
+      <c r="G169" s="96"/>
       <c r="H169" s="2"/>
       <c r="I169" s="2"/>
       <c r="J169" s="2"/>
@@ -18026,11 +18466,11 @@
       <c r="B188" s="95" t="s">
         <v>697</v>
       </c>
-      <c r="C188" s="94"/>
-      <c r="D188" s="94"/>
-      <c r="E188" s="94"/>
-      <c r="F188" s="94"/>
-      <c r="G188" s="94"/>
+      <c r="C188" s="96"/>
+      <c r="D188" s="96"/>
+      <c r="E188" s="96"/>
+      <c r="F188" s="96"/>
+      <c r="G188" s="96"/>
       <c r="H188" s="2"/>
       <c r="I188" s="2"/>
       <c r="J188" s="2"/>
@@ -20220,12 +20660,12 @@
       <c r="B218" s="95" t="s">
         <v>780</v>
       </c>
-      <c r="C218" s="94"/>
-      <c r="D218" s="94"/>
-      <c r="E218" s="94"/>
-      <c r="F218" s="94"/>
-      <c r="G218" s="94"/>
-      <c r="H218" s="94"/>
+      <c r="C218" s="96"/>
+      <c r="D218" s="96"/>
+      <c r="E218" s="96"/>
+      <c r="F218" s="96"/>
+      <c r="G218" s="96"/>
+      <c r="H218" s="96"/>
       <c r="I218" s="2"/>
       <c r="J218" s="2"/>
       <c r="K218" s="2"/>
@@ -20317,15 +20757,15 @@
     </row>
     <row r="220" spans="1:37" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A220" s="63"/>
-      <c r="B220" s="101" t="s">
+      <c r="B220" s="99" t="s">
         <v>788</v>
       </c>
-      <c r="C220" s="102"/>
-      <c r="D220" s="102"/>
-      <c r="E220" s="102"/>
-      <c r="F220" s="102"/>
-      <c r="G220" s="102"/>
-      <c r="H220" s="102"/>
+      <c r="C220" s="100"/>
+      <c r="D220" s="100"/>
+      <c r="E220" s="100"/>
+      <c r="F220" s="100"/>
+      <c r="G220" s="100"/>
+      <c r="H220" s="100"/>
       <c r="I220" s="63"/>
       <c r="J220" s="63"/>
       <c r="K220" s="63"/>
@@ -21295,15 +21735,15 @@
     </row>
     <row r="238" spans="1:37" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A238" s="63"/>
-      <c r="B238" s="99" t="s">
+      <c r="B238" s="97" t="s">
         <v>864</v>
       </c>
-      <c r="C238" s="100"/>
-      <c r="D238" s="100"/>
-      <c r="E238" s="100"/>
-      <c r="F238" s="100"/>
-      <c r="G238" s="100"/>
-      <c r="H238" s="100"/>
+      <c r="C238" s="98"/>
+      <c r="D238" s="98"/>
+      <c r="E238" s="98"/>
+      <c r="F238" s="98"/>
+      <c r="G238" s="98"/>
+      <c r="H238" s="98"/>
       <c r="I238" s="63"/>
       <c r="J238" s="63"/>
       <c r="K238" s="63"/>
@@ -22259,15 +22699,15 @@
     </row>
     <row r="256" spans="1:37" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A256" s="63"/>
-      <c r="B256" s="97" t="s">
+      <c r="B256" s="93" t="s">
         <v>923</v>
       </c>
-      <c r="C256" s="98"/>
-      <c r="D256" s="98"/>
-      <c r="E256" s="98"/>
-      <c r="F256" s="98"/>
-      <c r="G256" s="98"/>
-      <c r="H256" s="98"/>
+      <c r="C256" s="94"/>
+      <c r="D256" s="94"/>
+      <c r="E256" s="94"/>
+      <c r="F256" s="94"/>
+      <c r="G256" s="94"/>
+      <c r="H256" s="94"/>
       <c r="I256" s="63"/>
       <c r="J256" s="63"/>
       <c r="K256" s="63"/>
@@ -23517,7 +23957,7 @@
         <v>1004</v>
       </c>
       <c r="B281" s="44" t="s">
-        <v>1138</v>
+        <v>1132</v>
       </c>
       <c r="C281" s="3"/>
       <c r="D281" s="56"/>
@@ -23558,7 +23998,7 @@
     <row r="282" spans="1:256" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A282" s="56"/>
       <c r="B282" s="44" t="s">
-        <v>1137</v>
+        <v>1131</v>
       </c>
       <c r="C282" s="3"/>
       <c r="D282" s="56"/>
@@ -24205,7 +24645,7 @@
     <row r="292" spans="1:256" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A292" s="56"/>
       <c r="B292" s="62" t="s">
-        <v>1008</v>
+        <v>1155</v>
       </c>
       <c r="C292" s="3"/>
       <c r="D292" s="60"/>
@@ -24248,7 +24688,7 @@
         <v>1004</v>
       </c>
       <c r="B293" s="62" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="C293" s="3"/>
       <c r="D293" s="60"/>
@@ -24291,7 +24731,7 @@
         <v>1004</v>
       </c>
       <c r="B294" s="62" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="C294" s="3"/>
       <c r="D294" s="60"/>
@@ -24551,7 +24991,7 @@
     <row r="295" spans="1:256" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A295" s="56"/>
       <c r="B295" s="62" t="s">
-        <v>1139</v>
+        <v>1158</v>
       </c>
       <c r="C295" s="3"/>
       <c r="D295" s="60"/>
@@ -24594,7 +25034,7 @@
         <v>1004</v>
       </c>
       <c r="B296" s="62" t="s">
-        <v>1140</v>
+        <v>1133</v>
       </c>
       <c r="C296" s="3"/>
       <c r="D296" s="60"/>
@@ -24635,7 +25075,7 @@
     <row r="297" spans="1:256" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A297" s="56"/>
       <c r="B297" s="62" t="s">
-        <v>1141</v>
+        <v>1134</v>
       </c>
       <c r="C297" s="3"/>
       <c r="D297" s="60"/>
@@ -24897,7 +25337,7 @@
         <v>704</v>
       </c>
       <c r="B298" s="62" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="C298" s="3"/>
       <c r="D298" s="60"/>
@@ -24940,7 +25380,7 @@
         <v>1004</v>
       </c>
       <c r="B299" s="62" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="C299" s="3"/>
       <c r="D299" s="60"/>
@@ -24983,7 +25423,7 @@
         <v>1004</v>
       </c>
       <c r="B300" s="62" t="s">
-        <v>1142</v>
+        <v>1135</v>
       </c>
       <c r="C300" s="3"/>
       <c r="D300" s="60"/>
@@ -25024,7 +25464,7 @@
     <row r="301" spans="1:256" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A301" s="71"/>
       <c r="B301" s="62" t="s">
-        <v>1143</v>
+        <v>1136</v>
       </c>
       <c r="C301" s="3"/>
       <c r="D301" s="60"/>
@@ -25284,7 +25724,7 @@
     <row r="302" spans="1:256" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A302" s="56"/>
       <c r="B302" s="62" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="C302" s="3"/>
       <c r="D302" s="60"/>
@@ -25327,7 +25767,7 @@
         <v>704</v>
       </c>
       <c r="B303" s="62" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="C303" s="3"/>
       <c r="D303" s="56"/>
@@ -25370,7 +25810,7 @@
         <v>1004</v>
       </c>
       <c r="B304" s="62" t="s">
-        <v>1144</v>
+        <v>1137</v>
       </c>
       <c r="C304" s="3"/>
       <c r="D304" s="56"/>
@@ -25411,7 +25851,7 @@
     <row r="305" spans="1:256" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A305" s="56"/>
       <c r="B305" s="62" t="s">
-        <v>1145</v>
+        <v>1138</v>
       </c>
       <c r="C305" s="3"/>
       <c r="D305" s="56"/>
@@ -25671,7 +26111,7 @@
     <row r="306" spans="1:256" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A306" s="56"/>
       <c r="B306" s="62" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="C306" s="3"/>
       <c r="D306" s="56"/>
@@ -25712,7 +26152,7 @@
     <row r="307" spans="1:256" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A307" s="56"/>
       <c r="B307" s="62" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C307" s="3"/>
       <c r="D307" s="56"/>
@@ -25753,7 +26193,7 @@
     <row r="308" spans="1:256" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A308" s="56"/>
       <c r="B308" s="62" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="C308" s="3"/>
       <c r="D308" s="56"/>
@@ -25794,7 +26234,7 @@
     <row r="309" spans="1:256" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A309" s="56"/>
       <c r="B309" s="62" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="C309" s="3"/>
       <c r="D309" s="56"/>
@@ -25837,7 +26277,7 @@
         <v>704</v>
       </c>
       <c r="B310" s="62" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="C310" s="3"/>
       <c r="D310" s="56"/>
@@ -26007,7 +26447,7 @@
     <row r="314" spans="1:256" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A314" s="56"/>
       <c r="B314" s="62" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="C314" s="56"/>
       <c r="D314" s="56"/>
@@ -26048,7 +26488,7 @@
     <row r="315" spans="1:256" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A315" s="56"/>
       <c r="B315" s="62" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="C315" s="56"/>
       <c r="D315" s="56"/>
@@ -26089,7 +26529,7 @@
     <row r="316" spans="1:256" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A316" s="56"/>
       <c r="B316" s="62" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="C316" s="56"/>
       <c r="D316" s="56"/>
@@ -26167,9 +26607,11 @@
       <c r="AK317" s="56"/>
     </row>
     <row r="318" spans="1:256" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A318" s="56"/>
+      <c r="A318" s="56" t="s">
+        <v>1142</v>
+      </c>
       <c r="B318" s="71" t="s">
-        <v>1023</v>
+        <v>1148</v>
       </c>
       <c r="C318" s="56"/>
       <c r="D318" s="56"/>
@@ -26210,7 +26652,7 @@
     <row r="319" spans="1:256" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A319" s="56"/>
       <c r="B319" s="71" t="s">
-        <v>1150</v>
+        <v>1152</v>
       </c>
       <c r="C319" s="56"/>
       <c r="D319" s="56"/>
@@ -26247,11 +26689,230 @@
       <c r="AI319" s="56"/>
       <c r="AJ319" s="56"/>
       <c r="AK319" s="56"/>
+      <c r="AL319" s="90"/>
+      <c r="AM319" s="90"/>
+      <c r="AN319" s="90"/>
+      <c r="AO319" s="90"/>
+      <c r="AP319" s="90"/>
+      <c r="AQ319" s="90"/>
+      <c r="AR319" s="90"/>
+      <c r="AS319" s="90"/>
+      <c r="AT319" s="90"/>
+      <c r="AU319" s="90"/>
+      <c r="AV319" s="90"/>
+      <c r="AW319" s="90"/>
+      <c r="AX319" s="90"/>
+      <c r="AY319" s="90"/>
+      <c r="AZ319" s="90"/>
+      <c r="BA319" s="90"/>
+      <c r="BB319" s="90"/>
+      <c r="BC319" s="90"/>
+      <c r="BD319" s="90"/>
+      <c r="BE319" s="90"/>
+      <c r="BF319" s="90"/>
+      <c r="BG319" s="90"/>
+      <c r="BH319" s="90"/>
+      <c r="BI319" s="90"/>
+      <c r="BJ319" s="90"/>
+      <c r="BK319" s="90"/>
+      <c r="BL319" s="90"/>
+      <c r="BM319" s="90"/>
+      <c r="BN319" s="90"/>
+      <c r="BO319" s="90"/>
+      <c r="BP319" s="90"/>
+      <c r="BQ319" s="90"/>
+      <c r="BR319" s="90"/>
+      <c r="BS319" s="90"/>
+      <c r="BT319" s="90"/>
+      <c r="BU319" s="90"/>
+      <c r="BV319" s="90"/>
+      <c r="BW319" s="90"/>
+      <c r="BX319" s="90"/>
+      <c r="BY319" s="90"/>
+      <c r="BZ319" s="90"/>
+      <c r="CA319" s="90"/>
+      <c r="CB319" s="90"/>
+      <c r="CC319" s="90"/>
+      <c r="CD319" s="90"/>
+      <c r="CE319" s="90"/>
+      <c r="CF319" s="90"/>
+      <c r="CG319" s="90"/>
+      <c r="CH319" s="90"/>
+      <c r="CI319" s="90"/>
+      <c r="CJ319" s="90"/>
+      <c r="CK319" s="90"/>
+      <c r="CL319" s="90"/>
+      <c r="CM319" s="90"/>
+      <c r="CN319" s="90"/>
+      <c r="CO319" s="90"/>
+      <c r="CP319" s="90"/>
+      <c r="CQ319" s="90"/>
+      <c r="CR319" s="90"/>
+      <c r="CS319" s="90"/>
+      <c r="CT319" s="90"/>
+      <c r="CU319" s="90"/>
+      <c r="CV319" s="90"/>
+      <c r="CW319" s="90"/>
+      <c r="CX319" s="90"/>
+      <c r="CY319" s="90"/>
+      <c r="CZ319" s="90"/>
+      <c r="DA319" s="90"/>
+      <c r="DB319" s="90"/>
+      <c r="DC319" s="90"/>
+      <c r="DD319" s="90"/>
+      <c r="DE319" s="90"/>
+      <c r="DF319" s="90"/>
+      <c r="DG319" s="90"/>
+      <c r="DH319" s="90"/>
+      <c r="DI319" s="90"/>
+      <c r="DJ319" s="90"/>
+      <c r="DK319" s="90"/>
+      <c r="DL319" s="90"/>
+      <c r="DM319" s="90"/>
+      <c r="DN319" s="90"/>
+      <c r="DO319" s="90"/>
+      <c r="DP319" s="90"/>
+      <c r="DQ319" s="90"/>
+      <c r="DR319" s="90"/>
+      <c r="DS319" s="90"/>
+      <c r="DT319" s="90"/>
+      <c r="DU319" s="90"/>
+      <c r="DV319" s="90"/>
+      <c r="DW319" s="90"/>
+      <c r="DX319" s="90"/>
+      <c r="DY319" s="90"/>
+      <c r="DZ319" s="90"/>
+      <c r="EA319" s="90"/>
+      <c r="EB319" s="90"/>
+      <c r="EC319" s="90"/>
+      <c r="ED319" s="90"/>
+      <c r="EE319" s="90"/>
+      <c r="EF319" s="90"/>
+      <c r="EG319" s="90"/>
+      <c r="EH319" s="90"/>
+      <c r="EI319" s="90"/>
+      <c r="EJ319" s="90"/>
+      <c r="EK319" s="90"/>
+      <c r="EL319" s="90"/>
+      <c r="EM319" s="90"/>
+      <c r="EN319" s="90"/>
+      <c r="EO319" s="90"/>
+      <c r="EP319" s="90"/>
+      <c r="EQ319" s="90"/>
+      <c r="ER319" s="90"/>
+      <c r="ES319" s="90"/>
+      <c r="ET319" s="90"/>
+      <c r="EU319" s="90"/>
+      <c r="EV319" s="90"/>
+      <c r="EW319" s="90"/>
+      <c r="EX319" s="90"/>
+      <c r="EY319" s="90"/>
+      <c r="EZ319" s="90"/>
+      <c r="FA319" s="90"/>
+      <c r="FB319" s="90"/>
+      <c r="FC319" s="90"/>
+      <c r="FD319" s="90"/>
+      <c r="FE319" s="90"/>
+      <c r="FF319" s="90"/>
+      <c r="FG319" s="90"/>
+      <c r="FH319" s="90"/>
+      <c r="FI319" s="90"/>
+      <c r="FJ319" s="90"/>
+      <c r="FK319" s="90"/>
+      <c r="FL319" s="90"/>
+      <c r="FM319" s="90"/>
+      <c r="FN319" s="90"/>
+      <c r="FO319" s="90"/>
+      <c r="FP319" s="90"/>
+      <c r="FQ319" s="90"/>
+      <c r="FR319" s="90"/>
+      <c r="FS319" s="90"/>
+      <c r="FT319" s="90"/>
+      <c r="FU319" s="90"/>
+      <c r="FV319" s="90"/>
+      <c r="FW319" s="90"/>
+      <c r="FX319" s="90"/>
+      <c r="FY319" s="90"/>
+      <c r="FZ319" s="90"/>
+      <c r="GA319" s="90"/>
+      <c r="GB319" s="90"/>
+      <c r="GC319" s="90"/>
+      <c r="GD319" s="90"/>
+      <c r="GE319" s="90"/>
+      <c r="GF319" s="90"/>
+      <c r="GG319" s="90"/>
+      <c r="GH319" s="90"/>
+      <c r="GI319" s="90"/>
+      <c r="GJ319" s="90"/>
+      <c r="GK319" s="90"/>
+      <c r="GL319" s="90"/>
+      <c r="GM319" s="90"/>
+      <c r="GN319" s="90"/>
+      <c r="GO319" s="90"/>
+      <c r="GP319" s="90"/>
+      <c r="GQ319" s="90"/>
+      <c r="GR319" s="90"/>
+      <c r="GS319" s="90"/>
+      <c r="GT319" s="90"/>
+      <c r="GU319" s="90"/>
+      <c r="GV319" s="90"/>
+      <c r="GW319" s="90"/>
+      <c r="GX319" s="90"/>
+      <c r="GY319" s="90"/>
+      <c r="GZ319" s="90"/>
+      <c r="HA319" s="90"/>
+      <c r="HB319" s="90"/>
+      <c r="HC319" s="90"/>
+      <c r="HD319" s="90"/>
+      <c r="HE319" s="90"/>
+      <c r="HF319" s="90"/>
+      <c r="HG319" s="90"/>
+      <c r="HH319" s="90"/>
+      <c r="HI319" s="90"/>
+      <c r="HJ319" s="90"/>
+      <c r="HK319" s="90"/>
+      <c r="HL319" s="90"/>
+      <c r="HM319" s="90"/>
+      <c r="HN319" s="90"/>
+      <c r="HO319" s="90"/>
+      <c r="HP319" s="90"/>
+      <c r="HQ319" s="90"/>
+      <c r="HR319" s="90"/>
+      <c r="HS319" s="90"/>
+      <c r="HT319" s="90"/>
+      <c r="HU319" s="90"/>
+      <c r="HV319" s="90"/>
+      <c r="HW319" s="90"/>
+      <c r="HX319" s="90"/>
+      <c r="HY319" s="90"/>
+      <c r="HZ319" s="90"/>
+      <c r="IA319" s="90"/>
+      <c r="IB319" s="90"/>
+      <c r="IC319" s="90"/>
+      <c r="ID319" s="90"/>
+      <c r="IE319" s="90"/>
+      <c r="IF319" s="90"/>
+      <c r="IG319" s="90"/>
+      <c r="IH319" s="90"/>
+      <c r="II319" s="90"/>
+      <c r="IJ319" s="90"/>
+      <c r="IK319" s="90"/>
+      <c r="IL319" s="90"/>
+      <c r="IM319" s="90"/>
+      <c r="IN319" s="90"/>
+      <c r="IO319" s="90"/>
+      <c r="IP319" s="90"/>
+      <c r="IQ319" s="90"/>
+      <c r="IR319" s="90"/>
+      <c r="IS319" s="90"/>
+      <c r="IT319" s="90"/>
+      <c r="IU319" s="90"/>
+      <c r="IV319" s="90"/>
     </row>
     <row r="320" spans="1:256" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A320" s="56"/>
       <c r="B320" s="71" t="s">
-        <v>1149</v>
+        <v>1143</v>
       </c>
       <c r="C320" s="56"/>
       <c r="D320" s="56"/>
@@ -26288,10 +26949,233 @@
       <c r="AI320" s="56"/>
       <c r="AJ320" s="56"/>
       <c r="AK320" s="56"/>
-    </row>
-    <row r="321" spans="1:37" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A321" s="56"/>
-      <c r="B321" s="56"/>
+      <c r="AL320" s="90"/>
+      <c r="AM320" s="90"/>
+      <c r="AN320" s="90"/>
+      <c r="AO320" s="90"/>
+      <c r="AP320" s="90"/>
+      <c r="AQ320" s="90"/>
+      <c r="AR320" s="90"/>
+      <c r="AS320" s="90"/>
+      <c r="AT320" s="90"/>
+      <c r="AU320" s="90"/>
+      <c r="AV320" s="90"/>
+      <c r="AW320" s="90"/>
+      <c r="AX320" s="90"/>
+      <c r="AY320" s="90"/>
+      <c r="AZ320" s="90"/>
+      <c r="BA320" s="90"/>
+      <c r="BB320" s="90"/>
+      <c r="BC320" s="90"/>
+      <c r="BD320" s="90"/>
+      <c r="BE320" s="90"/>
+      <c r="BF320" s="90"/>
+      <c r="BG320" s="90"/>
+      <c r="BH320" s="90"/>
+      <c r="BI320" s="90"/>
+      <c r="BJ320" s="90"/>
+      <c r="BK320" s="90"/>
+      <c r="BL320" s="90"/>
+      <c r="BM320" s="90"/>
+      <c r="BN320" s="90"/>
+      <c r="BO320" s="90"/>
+      <c r="BP320" s="90"/>
+      <c r="BQ320" s="90"/>
+      <c r="BR320" s="90"/>
+      <c r="BS320" s="90"/>
+      <c r="BT320" s="90"/>
+      <c r="BU320" s="90"/>
+      <c r="BV320" s="90"/>
+      <c r="BW320" s="90"/>
+      <c r="BX320" s="90"/>
+      <c r="BY320" s="90"/>
+      <c r="BZ320" s="90"/>
+      <c r="CA320" s="90"/>
+      <c r="CB320" s="90"/>
+      <c r="CC320" s="90"/>
+      <c r="CD320" s="90"/>
+      <c r="CE320" s="90"/>
+      <c r="CF320" s="90"/>
+      <c r="CG320" s="90"/>
+      <c r="CH320" s="90"/>
+      <c r="CI320" s="90"/>
+      <c r="CJ320" s="90"/>
+      <c r="CK320" s="90"/>
+      <c r="CL320" s="90"/>
+      <c r="CM320" s="90"/>
+      <c r="CN320" s="90"/>
+      <c r="CO320" s="90"/>
+      <c r="CP320" s="90"/>
+      <c r="CQ320" s="90"/>
+      <c r="CR320" s="90"/>
+      <c r="CS320" s="90"/>
+      <c r="CT320" s="90"/>
+      <c r="CU320" s="90"/>
+      <c r="CV320" s="90"/>
+      <c r="CW320" s="90"/>
+      <c r="CX320" s="90"/>
+      <c r="CY320" s="90"/>
+      <c r="CZ320" s="90"/>
+      <c r="DA320" s="90"/>
+      <c r="DB320" s="90"/>
+      <c r="DC320" s="90"/>
+      <c r="DD320" s="90"/>
+      <c r="DE320" s="90"/>
+      <c r="DF320" s="90"/>
+      <c r="DG320" s="90"/>
+      <c r="DH320" s="90"/>
+      <c r="DI320" s="90"/>
+      <c r="DJ320" s="90"/>
+      <c r="DK320" s="90"/>
+      <c r="DL320" s="90"/>
+      <c r="DM320" s="90"/>
+      <c r="DN320" s="90"/>
+      <c r="DO320" s="90"/>
+      <c r="DP320" s="90"/>
+      <c r="DQ320" s="90"/>
+      <c r="DR320" s="90"/>
+      <c r="DS320" s="90"/>
+      <c r="DT320" s="90"/>
+      <c r="DU320" s="90"/>
+      <c r="DV320" s="90"/>
+      <c r="DW320" s="90"/>
+      <c r="DX320" s="90"/>
+      <c r="DY320" s="90"/>
+      <c r="DZ320" s="90"/>
+      <c r="EA320" s="90"/>
+      <c r="EB320" s="90"/>
+      <c r="EC320" s="90"/>
+      <c r="ED320" s="90"/>
+      <c r="EE320" s="90"/>
+      <c r="EF320" s="90"/>
+      <c r="EG320" s="90"/>
+      <c r="EH320" s="90"/>
+      <c r="EI320" s="90"/>
+      <c r="EJ320" s="90"/>
+      <c r="EK320" s="90"/>
+      <c r="EL320" s="90"/>
+      <c r="EM320" s="90"/>
+      <c r="EN320" s="90"/>
+      <c r="EO320" s="90"/>
+      <c r="EP320" s="90"/>
+      <c r="EQ320" s="90"/>
+      <c r="ER320" s="90"/>
+      <c r="ES320" s="90"/>
+      <c r="ET320" s="90"/>
+      <c r="EU320" s="90"/>
+      <c r="EV320" s="90"/>
+      <c r="EW320" s="90"/>
+      <c r="EX320" s="90"/>
+      <c r="EY320" s="90"/>
+      <c r="EZ320" s="90"/>
+      <c r="FA320" s="90"/>
+      <c r="FB320" s="90"/>
+      <c r="FC320" s="90"/>
+      <c r="FD320" s="90"/>
+      <c r="FE320" s="90"/>
+      <c r="FF320" s="90"/>
+      <c r="FG320" s="90"/>
+      <c r="FH320" s="90"/>
+      <c r="FI320" s="90"/>
+      <c r="FJ320" s="90"/>
+      <c r="FK320" s="90"/>
+      <c r="FL320" s="90"/>
+      <c r="FM320" s="90"/>
+      <c r="FN320" s="90"/>
+      <c r="FO320" s="90"/>
+      <c r="FP320" s="90"/>
+      <c r="FQ320" s="90"/>
+      <c r="FR320" s="90"/>
+      <c r="FS320" s="90"/>
+      <c r="FT320" s="90"/>
+      <c r="FU320" s="90"/>
+      <c r="FV320" s="90"/>
+      <c r="FW320" s="90"/>
+      <c r="FX320" s="90"/>
+      <c r="FY320" s="90"/>
+      <c r="FZ320" s="90"/>
+      <c r="GA320" s="90"/>
+      <c r="GB320" s="90"/>
+      <c r="GC320" s="90"/>
+      <c r="GD320" s="90"/>
+      <c r="GE320" s="90"/>
+      <c r="GF320" s="90"/>
+      <c r="GG320" s="90"/>
+      <c r="GH320" s="90"/>
+      <c r="GI320" s="90"/>
+      <c r="GJ320" s="90"/>
+      <c r="GK320" s="90"/>
+      <c r="GL320" s="90"/>
+      <c r="GM320" s="90"/>
+      <c r="GN320" s="90"/>
+      <c r="GO320" s="90"/>
+      <c r="GP320" s="90"/>
+      <c r="GQ320" s="90"/>
+      <c r="GR320" s="90"/>
+      <c r="GS320" s="90"/>
+      <c r="GT320" s="90"/>
+      <c r="GU320" s="90"/>
+      <c r="GV320" s="90"/>
+      <c r="GW320" s="90"/>
+      <c r="GX320" s="90"/>
+      <c r="GY320" s="90"/>
+      <c r="GZ320" s="90"/>
+      <c r="HA320" s="90"/>
+      <c r="HB320" s="90"/>
+      <c r="HC320" s="90"/>
+      <c r="HD320" s="90"/>
+      <c r="HE320" s="90"/>
+      <c r="HF320" s="90"/>
+      <c r="HG320" s="90"/>
+      <c r="HH320" s="90"/>
+      <c r="HI320" s="90"/>
+      <c r="HJ320" s="90"/>
+      <c r="HK320" s="90"/>
+      <c r="HL320" s="90"/>
+      <c r="HM320" s="90"/>
+      <c r="HN320" s="90"/>
+      <c r="HO320" s="90"/>
+      <c r="HP320" s="90"/>
+      <c r="HQ320" s="90"/>
+      <c r="HR320" s="90"/>
+      <c r="HS320" s="90"/>
+      <c r="HT320" s="90"/>
+      <c r="HU320" s="90"/>
+      <c r="HV320" s="90"/>
+      <c r="HW320" s="90"/>
+      <c r="HX320" s="90"/>
+      <c r="HY320" s="90"/>
+      <c r="HZ320" s="90"/>
+      <c r="IA320" s="90"/>
+      <c r="IB320" s="90"/>
+      <c r="IC320" s="90"/>
+      <c r="ID320" s="90"/>
+      <c r="IE320" s="90"/>
+      <c r="IF320" s="90"/>
+      <c r="IG320" s="90"/>
+      <c r="IH320" s="90"/>
+      <c r="II320" s="90"/>
+      <c r="IJ320" s="90"/>
+      <c r="IK320" s="90"/>
+      <c r="IL320" s="90"/>
+      <c r="IM320" s="90"/>
+      <c r="IN320" s="90"/>
+      <c r="IO320" s="90"/>
+      <c r="IP320" s="90"/>
+      <c r="IQ320" s="90"/>
+      <c r="IR320" s="90"/>
+      <c r="IS320" s="90"/>
+      <c r="IT320" s="90"/>
+      <c r="IU320" s="90"/>
+      <c r="IV320" s="90"/>
+    </row>
+    <row r="321" spans="1:256" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A321" s="56" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B321" s="71" t="s">
+        <v>1149</v>
+      </c>
       <c r="C321" s="56"/>
       <c r="D321" s="56"/>
       <c r="E321" s="56"/>
@@ -26328,9 +27212,11 @@
       <c r="AJ321" s="56"/>
       <c r="AK321" s="56"/>
     </row>
-    <row r="322" spans="1:37" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="322" spans="1:256" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A322" s="56"/>
-      <c r="B322" s="56"/>
+      <c r="B322" s="71" t="s">
+        <v>1153</v>
+      </c>
       <c r="C322" s="56"/>
       <c r="D322" s="56"/>
       <c r="E322" s="56"/>
@@ -26366,10 +27252,231 @@
       <c r="AI322" s="56"/>
       <c r="AJ322" s="56"/>
       <c r="AK322" s="56"/>
-    </row>
-    <row r="323" spans="1:37" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AL322" s="90"/>
+      <c r="AM322" s="90"/>
+      <c r="AN322" s="90"/>
+      <c r="AO322" s="90"/>
+      <c r="AP322" s="90"/>
+      <c r="AQ322" s="90"/>
+      <c r="AR322" s="90"/>
+      <c r="AS322" s="90"/>
+      <c r="AT322" s="90"/>
+      <c r="AU322" s="90"/>
+      <c r="AV322" s="90"/>
+      <c r="AW322" s="90"/>
+      <c r="AX322" s="90"/>
+      <c r="AY322" s="90"/>
+      <c r="AZ322" s="90"/>
+      <c r="BA322" s="90"/>
+      <c r="BB322" s="90"/>
+      <c r="BC322" s="90"/>
+      <c r="BD322" s="90"/>
+      <c r="BE322" s="90"/>
+      <c r="BF322" s="90"/>
+      <c r="BG322" s="90"/>
+      <c r="BH322" s="90"/>
+      <c r="BI322" s="90"/>
+      <c r="BJ322" s="90"/>
+      <c r="BK322" s="90"/>
+      <c r="BL322" s="90"/>
+      <c r="BM322" s="90"/>
+      <c r="BN322" s="90"/>
+      <c r="BO322" s="90"/>
+      <c r="BP322" s="90"/>
+      <c r="BQ322" s="90"/>
+      <c r="BR322" s="90"/>
+      <c r="BS322" s="90"/>
+      <c r="BT322" s="90"/>
+      <c r="BU322" s="90"/>
+      <c r="BV322" s="90"/>
+      <c r="BW322" s="90"/>
+      <c r="BX322" s="90"/>
+      <c r="BY322" s="90"/>
+      <c r="BZ322" s="90"/>
+      <c r="CA322" s="90"/>
+      <c r="CB322" s="90"/>
+      <c r="CC322" s="90"/>
+      <c r="CD322" s="90"/>
+      <c r="CE322" s="90"/>
+      <c r="CF322" s="90"/>
+      <c r="CG322" s="90"/>
+      <c r="CH322" s="90"/>
+      <c r="CI322" s="90"/>
+      <c r="CJ322" s="90"/>
+      <c r="CK322" s="90"/>
+      <c r="CL322" s="90"/>
+      <c r="CM322" s="90"/>
+      <c r="CN322" s="90"/>
+      <c r="CO322" s="90"/>
+      <c r="CP322" s="90"/>
+      <c r="CQ322" s="90"/>
+      <c r="CR322" s="90"/>
+      <c r="CS322" s="90"/>
+      <c r="CT322" s="90"/>
+      <c r="CU322" s="90"/>
+      <c r="CV322" s="90"/>
+      <c r="CW322" s="90"/>
+      <c r="CX322" s="90"/>
+      <c r="CY322" s="90"/>
+      <c r="CZ322" s="90"/>
+      <c r="DA322" s="90"/>
+      <c r="DB322" s="90"/>
+      <c r="DC322" s="90"/>
+      <c r="DD322" s="90"/>
+      <c r="DE322" s="90"/>
+      <c r="DF322" s="90"/>
+      <c r="DG322" s="90"/>
+      <c r="DH322" s="90"/>
+      <c r="DI322" s="90"/>
+      <c r="DJ322" s="90"/>
+      <c r="DK322" s="90"/>
+      <c r="DL322" s="90"/>
+      <c r="DM322" s="90"/>
+      <c r="DN322" s="90"/>
+      <c r="DO322" s="90"/>
+      <c r="DP322" s="90"/>
+      <c r="DQ322" s="90"/>
+      <c r="DR322" s="90"/>
+      <c r="DS322" s="90"/>
+      <c r="DT322" s="90"/>
+      <c r="DU322" s="90"/>
+      <c r="DV322" s="90"/>
+      <c r="DW322" s="90"/>
+      <c r="DX322" s="90"/>
+      <c r="DY322" s="90"/>
+      <c r="DZ322" s="90"/>
+      <c r="EA322" s="90"/>
+      <c r="EB322" s="90"/>
+      <c r="EC322" s="90"/>
+      <c r="ED322" s="90"/>
+      <c r="EE322" s="90"/>
+      <c r="EF322" s="90"/>
+      <c r="EG322" s="90"/>
+      <c r="EH322" s="90"/>
+      <c r="EI322" s="90"/>
+      <c r="EJ322" s="90"/>
+      <c r="EK322" s="90"/>
+      <c r="EL322" s="90"/>
+      <c r="EM322" s="90"/>
+      <c r="EN322" s="90"/>
+      <c r="EO322" s="90"/>
+      <c r="EP322" s="90"/>
+      <c r="EQ322" s="90"/>
+      <c r="ER322" s="90"/>
+      <c r="ES322" s="90"/>
+      <c r="ET322" s="90"/>
+      <c r="EU322" s="90"/>
+      <c r="EV322" s="90"/>
+      <c r="EW322" s="90"/>
+      <c r="EX322" s="90"/>
+      <c r="EY322" s="90"/>
+      <c r="EZ322" s="90"/>
+      <c r="FA322" s="90"/>
+      <c r="FB322" s="90"/>
+      <c r="FC322" s="90"/>
+      <c r="FD322" s="90"/>
+      <c r="FE322" s="90"/>
+      <c r="FF322" s="90"/>
+      <c r="FG322" s="90"/>
+      <c r="FH322" s="90"/>
+      <c r="FI322" s="90"/>
+      <c r="FJ322" s="90"/>
+      <c r="FK322" s="90"/>
+      <c r="FL322" s="90"/>
+      <c r="FM322" s="90"/>
+      <c r="FN322" s="90"/>
+      <c r="FO322" s="90"/>
+      <c r="FP322" s="90"/>
+      <c r="FQ322" s="90"/>
+      <c r="FR322" s="90"/>
+      <c r="FS322" s="90"/>
+      <c r="FT322" s="90"/>
+      <c r="FU322" s="90"/>
+      <c r="FV322" s="90"/>
+      <c r="FW322" s="90"/>
+      <c r="FX322" s="90"/>
+      <c r="FY322" s="90"/>
+      <c r="FZ322" s="90"/>
+      <c r="GA322" s="90"/>
+      <c r="GB322" s="90"/>
+      <c r="GC322" s="90"/>
+      <c r="GD322" s="90"/>
+      <c r="GE322" s="90"/>
+      <c r="GF322" s="90"/>
+      <c r="GG322" s="90"/>
+      <c r="GH322" s="90"/>
+      <c r="GI322" s="90"/>
+      <c r="GJ322" s="90"/>
+      <c r="GK322" s="90"/>
+      <c r="GL322" s="90"/>
+      <c r="GM322" s="90"/>
+      <c r="GN322" s="90"/>
+      <c r="GO322" s="90"/>
+      <c r="GP322" s="90"/>
+      <c r="GQ322" s="90"/>
+      <c r="GR322" s="90"/>
+      <c r="GS322" s="90"/>
+      <c r="GT322" s="90"/>
+      <c r="GU322" s="90"/>
+      <c r="GV322" s="90"/>
+      <c r="GW322" s="90"/>
+      <c r="GX322" s="90"/>
+      <c r="GY322" s="90"/>
+      <c r="GZ322" s="90"/>
+      <c r="HA322" s="90"/>
+      <c r="HB322" s="90"/>
+      <c r="HC322" s="90"/>
+      <c r="HD322" s="90"/>
+      <c r="HE322" s="90"/>
+      <c r="HF322" s="90"/>
+      <c r="HG322" s="90"/>
+      <c r="HH322" s="90"/>
+      <c r="HI322" s="90"/>
+      <c r="HJ322" s="90"/>
+      <c r="HK322" s="90"/>
+      <c r="HL322" s="90"/>
+      <c r="HM322" s="90"/>
+      <c r="HN322" s="90"/>
+      <c r="HO322" s="90"/>
+      <c r="HP322" s="90"/>
+      <c r="HQ322" s="90"/>
+      <c r="HR322" s="90"/>
+      <c r="HS322" s="90"/>
+      <c r="HT322" s="90"/>
+      <c r="HU322" s="90"/>
+      <c r="HV322" s="90"/>
+      <c r="HW322" s="90"/>
+      <c r="HX322" s="90"/>
+      <c r="HY322" s="90"/>
+      <c r="HZ322" s="90"/>
+      <c r="IA322" s="90"/>
+      <c r="IB322" s="90"/>
+      <c r="IC322" s="90"/>
+      <c r="ID322" s="90"/>
+      <c r="IE322" s="90"/>
+      <c r="IF322" s="90"/>
+      <c r="IG322" s="90"/>
+      <c r="IH322" s="90"/>
+      <c r="II322" s="90"/>
+      <c r="IJ322" s="90"/>
+      <c r="IK322" s="90"/>
+      <c r="IL322" s="90"/>
+      <c r="IM322" s="90"/>
+      <c r="IN322" s="90"/>
+      <c r="IO322" s="90"/>
+      <c r="IP322" s="90"/>
+      <c r="IQ322" s="90"/>
+      <c r="IR322" s="90"/>
+      <c r="IS322" s="90"/>
+      <c r="IT322" s="90"/>
+      <c r="IU322" s="90"/>
+      <c r="IV322" s="90"/>
+    </row>
+    <row r="323" spans="1:256" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A323" s="56"/>
-      <c r="B323" s="56"/>
+      <c r="B323" s="71" t="s">
+        <v>1150</v>
+      </c>
       <c r="C323" s="56"/>
       <c r="D323" s="56"/>
       <c r="E323" s="56"/>
@@ -26405,13 +27512,232 @@
       <c r="AI323" s="56"/>
       <c r="AJ323" s="56"/>
       <c r="AK323" s="56"/>
-    </row>
-    <row r="324" spans="1:37" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A324" s="71" t="s">
-        <v>704</v>
+      <c r="AL323" s="90"/>
+      <c r="AM323" s="90"/>
+      <c r="AN323" s="90"/>
+      <c r="AO323" s="90"/>
+      <c r="AP323" s="90"/>
+      <c r="AQ323" s="90"/>
+      <c r="AR323" s="90"/>
+      <c r="AS323" s="90"/>
+      <c r="AT323" s="90"/>
+      <c r="AU323" s="90"/>
+      <c r="AV323" s="90"/>
+      <c r="AW323" s="90"/>
+      <c r="AX323" s="90"/>
+      <c r="AY323" s="90"/>
+      <c r="AZ323" s="90"/>
+      <c r="BA323" s="90"/>
+      <c r="BB323" s="90"/>
+      <c r="BC323" s="90"/>
+      <c r="BD323" s="90"/>
+      <c r="BE323" s="90"/>
+      <c r="BF323" s="90"/>
+      <c r="BG323" s="90"/>
+      <c r="BH323" s="90"/>
+      <c r="BI323" s="90"/>
+      <c r="BJ323" s="90"/>
+      <c r="BK323" s="90"/>
+      <c r="BL323" s="90"/>
+      <c r="BM323" s="90"/>
+      <c r="BN323" s="90"/>
+      <c r="BO323" s="90"/>
+      <c r="BP323" s="90"/>
+      <c r="BQ323" s="90"/>
+      <c r="BR323" s="90"/>
+      <c r="BS323" s="90"/>
+      <c r="BT323" s="90"/>
+      <c r="BU323" s="90"/>
+      <c r="BV323" s="90"/>
+      <c r="BW323" s="90"/>
+      <c r="BX323" s="90"/>
+      <c r="BY323" s="90"/>
+      <c r="BZ323" s="90"/>
+      <c r="CA323" s="90"/>
+      <c r="CB323" s="90"/>
+      <c r="CC323" s="90"/>
+      <c r="CD323" s="90"/>
+      <c r="CE323" s="90"/>
+      <c r="CF323" s="90"/>
+      <c r="CG323" s="90"/>
+      <c r="CH323" s="90"/>
+      <c r="CI323" s="90"/>
+      <c r="CJ323" s="90"/>
+      <c r="CK323" s="90"/>
+      <c r="CL323" s="90"/>
+      <c r="CM323" s="90"/>
+      <c r="CN323" s="90"/>
+      <c r="CO323" s="90"/>
+      <c r="CP323" s="90"/>
+      <c r="CQ323" s="90"/>
+      <c r="CR323" s="90"/>
+      <c r="CS323" s="90"/>
+      <c r="CT323" s="90"/>
+      <c r="CU323" s="90"/>
+      <c r="CV323" s="90"/>
+      <c r="CW323" s="90"/>
+      <c r="CX323" s="90"/>
+      <c r="CY323" s="90"/>
+      <c r="CZ323" s="90"/>
+      <c r="DA323" s="90"/>
+      <c r="DB323" s="90"/>
+      <c r="DC323" s="90"/>
+      <c r="DD323" s="90"/>
+      <c r="DE323" s="90"/>
+      <c r="DF323" s="90"/>
+      <c r="DG323" s="90"/>
+      <c r="DH323" s="90"/>
+      <c r="DI323" s="90"/>
+      <c r="DJ323" s="90"/>
+      <c r="DK323" s="90"/>
+      <c r="DL323" s="90"/>
+      <c r="DM323" s="90"/>
+      <c r="DN323" s="90"/>
+      <c r="DO323" s="90"/>
+      <c r="DP323" s="90"/>
+      <c r="DQ323" s="90"/>
+      <c r="DR323" s="90"/>
+      <c r="DS323" s="90"/>
+      <c r="DT323" s="90"/>
+      <c r="DU323" s="90"/>
+      <c r="DV323" s="90"/>
+      <c r="DW323" s="90"/>
+      <c r="DX323" s="90"/>
+      <c r="DY323" s="90"/>
+      <c r="DZ323" s="90"/>
+      <c r="EA323" s="90"/>
+      <c r="EB323" s="90"/>
+      <c r="EC323" s="90"/>
+      <c r="ED323" s="90"/>
+      <c r="EE323" s="90"/>
+      <c r="EF323" s="90"/>
+      <c r="EG323" s="90"/>
+      <c r="EH323" s="90"/>
+      <c r="EI323" s="90"/>
+      <c r="EJ323" s="90"/>
+      <c r="EK323" s="90"/>
+      <c r="EL323" s="90"/>
+      <c r="EM323" s="90"/>
+      <c r="EN323" s="90"/>
+      <c r="EO323" s="90"/>
+      <c r="EP323" s="90"/>
+      <c r="EQ323" s="90"/>
+      <c r="ER323" s="90"/>
+      <c r="ES323" s="90"/>
+      <c r="ET323" s="90"/>
+      <c r="EU323" s="90"/>
+      <c r="EV323" s="90"/>
+      <c r="EW323" s="90"/>
+      <c r="EX323" s="90"/>
+      <c r="EY323" s="90"/>
+      <c r="EZ323" s="90"/>
+      <c r="FA323" s="90"/>
+      <c r="FB323" s="90"/>
+      <c r="FC323" s="90"/>
+      <c r="FD323" s="90"/>
+      <c r="FE323" s="90"/>
+      <c r="FF323" s="90"/>
+      <c r="FG323" s="90"/>
+      <c r="FH323" s="90"/>
+      <c r="FI323" s="90"/>
+      <c r="FJ323" s="90"/>
+      <c r="FK323" s="90"/>
+      <c r="FL323" s="90"/>
+      <c r="FM323" s="90"/>
+      <c r="FN323" s="90"/>
+      <c r="FO323" s="90"/>
+      <c r="FP323" s="90"/>
+      <c r="FQ323" s="90"/>
+      <c r="FR323" s="90"/>
+      <c r="FS323" s="90"/>
+      <c r="FT323" s="90"/>
+      <c r="FU323" s="90"/>
+      <c r="FV323" s="90"/>
+      <c r="FW323" s="90"/>
+      <c r="FX323" s="90"/>
+      <c r="FY323" s="90"/>
+      <c r="FZ323" s="90"/>
+      <c r="GA323" s="90"/>
+      <c r="GB323" s="90"/>
+      <c r="GC323" s="90"/>
+      <c r="GD323" s="90"/>
+      <c r="GE323" s="90"/>
+      <c r="GF323" s="90"/>
+      <c r="GG323" s="90"/>
+      <c r="GH323" s="90"/>
+      <c r="GI323" s="90"/>
+      <c r="GJ323" s="90"/>
+      <c r="GK323" s="90"/>
+      <c r="GL323" s="90"/>
+      <c r="GM323" s="90"/>
+      <c r="GN323" s="90"/>
+      <c r="GO323" s="90"/>
+      <c r="GP323" s="90"/>
+      <c r="GQ323" s="90"/>
+      <c r="GR323" s="90"/>
+      <c r="GS323" s="90"/>
+      <c r="GT323" s="90"/>
+      <c r="GU323" s="90"/>
+      <c r="GV323" s="90"/>
+      <c r="GW323" s="90"/>
+      <c r="GX323" s="90"/>
+      <c r="GY323" s="90"/>
+      <c r="GZ323" s="90"/>
+      <c r="HA323" s="90"/>
+      <c r="HB323" s="90"/>
+      <c r="HC323" s="90"/>
+      <c r="HD323" s="90"/>
+      <c r="HE323" s="90"/>
+      <c r="HF323" s="90"/>
+      <c r="HG323" s="90"/>
+      <c r="HH323" s="90"/>
+      <c r="HI323" s="90"/>
+      <c r="HJ323" s="90"/>
+      <c r="HK323" s="90"/>
+      <c r="HL323" s="90"/>
+      <c r="HM323" s="90"/>
+      <c r="HN323" s="90"/>
+      <c r="HO323" s="90"/>
+      <c r="HP323" s="90"/>
+      <c r="HQ323" s="90"/>
+      <c r="HR323" s="90"/>
+      <c r="HS323" s="90"/>
+      <c r="HT323" s="90"/>
+      <c r="HU323" s="90"/>
+      <c r="HV323" s="90"/>
+      <c r="HW323" s="90"/>
+      <c r="HX323" s="90"/>
+      <c r="HY323" s="90"/>
+      <c r="HZ323" s="90"/>
+      <c r="IA323" s="90"/>
+      <c r="IB323" s="90"/>
+      <c r="IC323" s="90"/>
+      <c r="ID323" s="90"/>
+      <c r="IE323" s="90"/>
+      <c r="IF323" s="90"/>
+      <c r="IG323" s="90"/>
+      <c r="IH323" s="90"/>
+      <c r="II323" s="90"/>
+      <c r="IJ323" s="90"/>
+      <c r="IK323" s="90"/>
+      <c r="IL323" s="90"/>
+      <c r="IM323" s="90"/>
+      <c r="IN323" s="90"/>
+      <c r="IO323" s="90"/>
+      <c r="IP323" s="90"/>
+      <c r="IQ323" s="90"/>
+      <c r="IR323" s="90"/>
+      <c r="IS323" s="90"/>
+      <c r="IT323" s="90"/>
+      <c r="IU323" s="90"/>
+      <c r="IV323" s="90"/>
+    </row>
+    <row r="324" spans="1:256" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A324" s="56" t="s">
+        <v>1145</v>
       </c>
       <c r="B324" s="71" t="s">
-        <v>1024</v>
+        <v>1156</v>
       </c>
       <c r="C324" s="56"/>
       <c r="D324" s="56"/>
@@ -26449,10 +27775,10 @@
       <c r="AJ324" s="56"/>
       <c r="AK324" s="56"/>
     </row>
-    <row r="325" spans="1:37" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="325" spans="1:256" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A325" s="56"/>
-      <c r="B325" s="71" t="s">
-        <v>1025</v>
+      <c r="B325" s="56" t="s">
+        <v>1159</v>
       </c>
       <c r="C325" s="56"/>
       <c r="D325" s="56"/>
@@ -26490,10 +27816,10 @@
       <c r="AJ325" s="56"/>
       <c r="AK325" s="56"/>
     </row>
-    <row r="326" spans="1:37" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="326" spans="1:256" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A326" s="56"/>
-      <c r="B326" s="46" t="s">
-        <v>1026</v>
+      <c r="B326" s="56" t="s">
+        <v>1154</v>
       </c>
       <c r="C326" s="56"/>
       <c r="D326" s="56"/>
@@ -26531,11 +27857,9 @@
       <c r="AJ326" s="56"/>
       <c r="AK326" s="56"/>
     </row>
-    <row r="327" spans="1:37" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="327" spans="1:256" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A327" s="56"/>
-      <c r="B327" s="46" t="s">
-        <v>1027</v>
-      </c>
+      <c r="B327" s="56"/>
       <c r="C327" s="56"/>
       <c r="D327" s="56"/>
       <c r="E327" s="56"/>
@@ -26572,10 +27896,12 @@
       <c r="AJ327" s="56"/>
       <c r="AK327" s="56"/>
     </row>
-    <row r="328" spans="1:37" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A328" s="56"/>
-      <c r="B328" s="46" t="s">
-        <v>1028</v>
+    <row r="328" spans="1:256" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A328" s="71" t="s">
+        <v>704</v>
+      </c>
+      <c r="B328" s="71" t="s">
+        <v>1022</v>
       </c>
       <c r="C328" s="56"/>
       <c r="D328" s="56"/>
@@ -26613,10 +27939,10 @@
       <c r="AJ328" s="56"/>
       <c r="AK328" s="56"/>
     </row>
-    <row r="329" spans="1:37" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="329" spans="1:256" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A329" s="56"/>
       <c r="B329" s="71" t="s">
-        <v>1029</v>
+        <v>1023</v>
       </c>
       <c r="C329" s="56"/>
       <c r="D329" s="56"/>
@@ -26654,10 +27980,10 @@
       <c r="AJ329" s="56"/>
       <c r="AK329" s="56"/>
     </row>
-    <row r="330" spans="1:37" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="330" spans="1:256" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A330" s="56"/>
       <c r="B330" s="46" t="s">
-        <v>1030</v>
+        <v>1146</v>
       </c>
       <c r="C330" s="56"/>
       <c r="D330" s="56"/>
@@ -26695,10 +28021,10 @@
       <c r="AJ330" s="56"/>
       <c r="AK330" s="56"/>
     </row>
-    <row r="331" spans="1:37" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="331" spans="1:256" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A331" s="56"/>
       <c r="B331" s="46" t="s">
-        <v>1031</v>
+        <v>1147</v>
       </c>
       <c r="C331" s="56"/>
       <c r="D331" s="56"/>
@@ -26736,10 +28062,10 @@
       <c r="AJ331" s="56"/>
       <c r="AK331" s="56"/>
     </row>
-    <row r="332" spans="1:37" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="332" spans="1:256" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A332" s="56"/>
       <c r="B332" s="46" t="s">
-        <v>1032</v>
+        <v>1024</v>
       </c>
       <c r="C332" s="56"/>
       <c r="D332" s="56"/>
@@ -26777,10 +28103,10 @@
       <c r="AJ332" s="56"/>
       <c r="AK332" s="56"/>
     </row>
-    <row r="333" spans="1:37" ht="49" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="333" spans="1:256" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A333" s="56"/>
-      <c r="B333" s="87" t="s">
-        <v>1033</v>
+      <c r="B333" s="71" t="s">
+        <v>1025</v>
       </c>
       <c r="C333" s="56"/>
       <c r="D333" s="56"/>
@@ -26818,10 +28144,10 @@
       <c r="AJ333" s="56"/>
       <c r="AK333" s="56"/>
     </row>
-    <row r="334" spans="1:37" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="334" spans="1:256" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A334" s="56"/>
       <c r="B334" s="46" t="s">
-        <v>1034</v>
+        <v>1026</v>
       </c>
       <c r="C334" s="56"/>
       <c r="D334" s="56"/>
@@ -26859,10 +28185,10 @@
       <c r="AJ334" s="56"/>
       <c r="AK334" s="56"/>
     </row>
-    <row r="335" spans="1:37" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="335" spans="1:256" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A335" s="56"/>
       <c r="B335" s="46" t="s">
-        <v>1035</v>
+        <v>1027</v>
       </c>
       <c r="C335" s="56"/>
       <c r="D335" s="56"/>
@@ -26900,10 +28226,10 @@
       <c r="AJ335" s="56"/>
       <c r="AK335" s="56"/>
     </row>
-    <row r="336" spans="1:37" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="336" spans="1:256" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A336" s="56"/>
       <c r="B336" s="46" t="s">
-        <v>1036</v>
+        <v>1028</v>
       </c>
       <c r="C336" s="56"/>
       <c r="D336" s="56"/>
@@ -26941,10 +28267,10 @@
       <c r="AJ336" s="56"/>
       <c r="AK336" s="56"/>
     </row>
-    <row r="337" spans="1:37" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="337" spans="1:37" ht="49" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A337" s="56"/>
-      <c r="B337" s="46" t="s">
-        <v>1037</v>
+      <c r="B337" s="87" t="s">
+        <v>1029</v>
       </c>
       <c r="C337" s="56"/>
       <c r="D337" s="56"/>
@@ -26985,7 +28311,7 @@
     <row r="338" spans="1:37" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A338" s="56"/>
       <c r="B338" s="46" t="s">
-        <v>1038</v>
+        <v>1030</v>
       </c>
       <c r="C338" s="56"/>
       <c r="D338" s="56"/>
@@ -27023,10 +28349,10 @@
       <c r="AJ338" s="56"/>
       <c r="AK338" s="56"/>
     </row>
-    <row r="339" spans="1:37" ht="34" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="339" spans="1:37" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A339" s="56"/>
-      <c r="B339" s="87" t="s">
-        <v>1039</v>
+      <c r="B339" s="46" t="s">
+        <v>1031</v>
       </c>
       <c r="C339" s="56"/>
       <c r="D339" s="56"/>
@@ -27067,7 +28393,7 @@
     <row r="340" spans="1:37" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A340" s="56"/>
       <c r="B340" s="46" t="s">
-        <v>1040</v>
+        <v>1032</v>
       </c>
       <c r="C340" s="56"/>
       <c r="D340" s="56"/>
@@ -27108,7 +28434,7 @@
     <row r="341" spans="1:37" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A341" s="56"/>
       <c r="B341" s="46" t="s">
-        <v>1041</v>
+        <v>1033</v>
       </c>
       <c r="C341" s="56"/>
       <c r="D341" s="56"/>
@@ -27148,7 +28474,9 @@
     </row>
     <row r="342" spans="1:37" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A342" s="56"/>
-      <c r="B342" s="63"/>
+      <c r="B342" s="46" t="s">
+        <v>1034</v>
+      </c>
       <c r="C342" s="56"/>
       <c r="D342" s="56"/>
       <c r="E342" s="56"/>
@@ -27185,9 +28513,11 @@
       <c r="AJ342" s="56"/>
       <c r="AK342" s="56"/>
     </row>
-    <row r="343" spans="1:37" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="343" spans="1:37" ht="34" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A343" s="56"/>
-      <c r="B343" s="46"/>
+      <c r="B343" s="87" t="s">
+        <v>1035</v>
+      </c>
       <c r="C343" s="56"/>
       <c r="D343" s="56"/>
       <c r="E343" s="56"/>
@@ -27227,7 +28557,7 @@
     <row r="344" spans="1:37" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A344" s="56"/>
       <c r="B344" s="46" t="s">
-        <v>1042</v>
+        <v>1036</v>
       </c>
       <c r="C344" s="56"/>
       <c r="D344" s="56"/>
@@ -27267,7 +28597,9 @@
     </row>
     <row r="345" spans="1:37" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A345" s="56"/>
-      <c r="B345" s="63"/>
+      <c r="B345" s="46" t="s">
+        <v>1037</v>
+      </c>
       <c r="C345" s="56"/>
       <c r="D345" s="56"/>
       <c r="E345" s="56"/>
@@ -27345,7 +28677,7 @@
     </row>
     <row r="347" spans="1:37" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A347" s="56"/>
-      <c r="B347" s="63"/>
+      <c r="B347" s="46"/>
       <c r="C347" s="56"/>
       <c r="D347" s="56"/>
       <c r="E347" s="56"/>
@@ -27384,7 +28716,9 @@
     </row>
     <row r="348" spans="1:37" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A348" s="56"/>
-      <c r="B348" s="63"/>
+      <c r="B348" s="46" t="s">
+        <v>1038</v>
+      </c>
       <c r="C348" s="56"/>
       <c r="D348" s="56"/>
       <c r="E348" s="56"/>
@@ -27538,11 +28872,9 @@
       <c r="AJ351" s="56"/>
       <c r="AK351" s="56"/>
     </row>
-    <row r="352" spans="1:37" ht="14" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="352" spans="1:37" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A352" s="56"/>
-      <c r="B352" s="71" t="s">
-        <v>1043</v>
-      </c>
+      <c r="B352" s="63"/>
       <c r="C352" s="56"/>
       <c r="D352" s="56"/>
       <c r="E352" s="56"/>
@@ -27581,9 +28913,7 @@
     </row>
     <row r="353" spans="1:37" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A353" s="56"/>
-      <c r="B353" s="71" t="s">
-        <v>1044</v>
-      </c>
+      <c r="B353" s="63"/>
       <c r="C353" s="56"/>
       <c r="D353" s="56"/>
       <c r="E353" s="56"/>
@@ -27622,9 +28952,7 @@
     </row>
     <row r="354" spans="1:37" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A354" s="56"/>
-      <c r="B354" s="71" t="s">
-        <v>1045</v>
-      </c>
+      <c r="B354" s="63"/>
       <c r="C354" s="56"/>
       <c r="D354" s="56"/>
       <c r="E354" s="56"/>
@@ -27663,7 +28991,7 @@
     </row>
     <row r="355" spans="1:37" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A355" s="56"/>
-      <c r="B355" s="56"/>
+      <c r="B355" s="63"/>
       <c r="C355" s="56"/>
       <c r="D355" s="56"/>
       <c r="E355" s="56"/>
@@ -27700,9 +29028,11 @@
       <c r="AJ355" s="56"/>
       <c r="AK355" s="56"/>
     </row>
-    <row r="356" spans="1:37" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="356" spans="1:37" ht="14" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A356" s="56"/>
-      <c r="B356" s="56"/>
+      <c r="B356" s="71" t="s">
+        <v>1039</v>
+      </c>
       <c r="C356" s="56"/>
       <c r="D356" s="56"/>
       <c r="E356" s="56"/>
@@ -27740,11 +29070,9 @@
       <c r="AK356" s="56"/>
     </row>
     <row r="357" spans="1:37" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A357" s="71" t="s">
-        <v>704</v>
-      </c>
+      <c r="A357" s="56"/>
       <c r="B357" s="71" t="s">
-        <v>1046</v>
+        <v>1040</v>
       </c>
       <c r="C357" s="56"/>
       <c r="D357" s="56"/>
@@ -27785,7 +29113,7 @@
     <row r="358" spans="1:37" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A358" s="56"/>
       <c r="B358" s="71" t="s">
-        <v>1047</v>
+        <v>1041</v>
       </c>
       <c r="C358" s="56"/>
       <c r="D358" s="56"/>
@@ -27825,9 +29153,7 @@
     </row>
     <row r="359" spans="1:37" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A359" s="56"/>
-      <c r="B359" s="71" t="s">
-        <v>1048</v>
-      </c>
+      <c r="B359" s="56"/>
       <c r="C359" s="56"/>
       <c r="D359" s="56"/>
       <c r="E359" s="56"/>
@@ -27866,9 +29192,7 @@
     </row>
     <row r="360" spans="1:37" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A360" s="56"/>
-      <c r="B360" s="71" t="s">
-        <v>1049</v>
-      </c>
+      <c r="B360" s="56"/>
       <c r="C360" s="56"/>
       <c r="D360" s="56"/>
       <c r="E360" s="56"/>
@@ -27906,9 +29230,11 @@
       <c r="AK360" s="56"/>
     </row>
     <row r="361" spans="1:37" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A361" s="56"/>
+      <c r="A361" s="71" t="s">
+        <v>704</v>
+      </c>
       <c r="B361" s="71" t="s">
-        <v>1050</v>
+        <v>1042</v>
       </c>
       <c r="C361" s="56"/>
       <c r="D361" s="56"/>
@@ -27949,7 +29275,7 @@
     <row r="362" spans="1:37" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A362" s="56"/>
       <c r="B362" s="71" t="s">
-        <v>1051</v>
+        <v>1043</v>
       </c>
       <c r="C362" s="56"/>
       <c r="D362" s="56"/>
@@ -27990,7 +29316,7 @@
     <row r="363" spans="1:37" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A363" s="56"/>
       <c r="B363" s="71" t="s">
-        <v>1052</v>
+        <v>1044</v>
       </c>
       <c r="C363" s="56"/>
       <c r="D363" s="56"/>
@@ -28031,7 +29357,7 @@
     <row r="364" spans="1:37" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A364" s="56"/>
       <c r="B364" s="71" t="s">
-        <v>1053</v>
+        <v>1045</v>
       </c>
       <c r="C364" s="56"/>
       <c r="D364" s="56"/>
@@ -28072,7 +29398,7 @@
     <row r="365" spans="1:37" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A365" s="56"/>
       <c r="B365" s="71" t="s">
-        <v>1054</v>
+        <v>1046</v>
       </c>
       <c r="C365" s="56"/>
       <c r="D365" s="56"/>
@@ -28113,7 +29439,7 @@
     <row r="366" spans="1:37" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A366" s="56"/>
       <c r="B366" s="71" t="s">
-        <v>1055</v>
+        <v>1047</v>
       </c>
       <c r="C366" s="56"/>
       <c r="D366" s="56"/>
@@ -28154,7 +29480,7 @@
     <row r="367" spans="1:37" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A367" s="56"/>
       <c r="B367" s="71" t="s">
-        <v>1056</v>
+        <v>1048</v>
       </c>
       <c r="C367" s="56"/>
       <c r="D367" s="56"/>
@@ -28195,7 +29521,7 @@
     <row r="368" spans="1:37" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A368" s="56"/>
       <c r="B368" s="71" t="s">
-        <v>1057</v>
+        <v>1049</v>
       </c>
       <c r="C368" s="56"/>
       <c r="D368" s="56"/>
@@ -28236,7 +29562,7 @@
     <row r="369" spans="1:37" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A369" s="56"/>
       <c r="B369" s="71" t="s">
-        <v>1058</v>
+        <v>1050</v>
       </c>
       <c r="C369" s="56"/>
       <c r="D369" s="56"/>
@@ -28277,7 +29603,7 @@
     <row r="370" spans="1:37" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A370" s="56"/>
       <c r="B370" s="71" t="s">
-        <v>1059</v>
+        <v>1051</v>
       </c>
       <c r="C370" s="56"/>
       <c r="D370" s="56"/>
@@ -28318,7 +29644,7 @@
     <row r="371" spans="1:37" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A371" s="56"/>
       <c r="B371" s="71" t="s">
-        <v>1060</v>
+        <v>1052</v>
       </c>
       <c r="C371" s="56"/>
       <c r="D371" s="56"/>
@@ -28359,7 +29685,7 @@
     <row r="372" spans="1:37" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A372" s="56"/>
       <c r="B372" s="71" t="s">
-        <v>1061</v>
+        <v>1053</v>
       </c>
       <c r="C372" s="56"/>
       <c r="D372" s="56"/>
@@ -28399,7 +29725,9 @@
     </row>
     <row r="373" spans="1:37" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A373" s="56"/>
-      <c r="B373" s="56"/>
+      <c r="B373" s="71" t="s">
+        <v>1054</v>
+      </c>
       <c r="C373" s="56"/>
       <c r="D373" s="56"/>
       <c r="E373" s="56"/>
@@ -28439,7 +29767,7 @@
     <row r="374" spans="1:37" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A374" s="56"/>
       <c r="B374" s="71" t="s">
-        <v>1062</v>
+        <v>1055</v>
       </c>
       <c r="C374" s="56"/>
       <c r="D374" s="56"/>
@@ -28479,7 +29807,9 @@
     </row>
     <row r="375" spans="1:37" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A375" s="56"/>
-      <c r="B375" s="56"/>
+      <c r="B375" s="71" t="s">
+        <v>1056</v>
+      </c>
       <c r="C375" s="56"/>
       <c r="D375" s="56"/>
       <c r="E375" s="56"/>
@@ -28518,7 +29848,9 @@
     </row>
     <row r="376" spans="1:37" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A376" s="56"/>
-      <c r="B376" s="56"/>
+      <c r="B376" s="71" t="s">
+        <v>1057</v>
+      </c>
       <c r="C376" s="56"/>
       <c r="D376" s="56"/>
       <c r="E376" s="56"/>
@@ -28596,7 +29928,9 @@
     </row>
     <row r="378" spans="1:37" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A378" s="56"/>
-      <c r="B378" s="56"/>
+      <c r="B378" s="71" t="s">
+        <v>1058</v>
+      </c>
       <c r="C378" s="56"/>
       <c r="D378" s="56"/>
       <c r="E378" s="56"/>
@@ -28867,8 +30201,170 @@
       <c r="AJ384" s="56"/>
       <c r="AK384" s="56"/>
     </row>
+    <row r="385" spans="1:37" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A385" s="56"/>
+      <c r="B385" s="56"/>
+      <c r="C385" s="56"/>
+      <c r="D385" s="56"/>
+      <c r="E385" s="56"/>
+      <c r="F385" s="56"/>
+      <c r="G385" s="56"/>
+      <c r="H385" s="56"/>
+      <c r="I385" s="56"/>
+      <c r="J385" s="56"/>
+      <c r="K385" s="56"/>
+      <c r="L385" s="56"/>
+      <c r="M385" s="56"/>
+      <c r="N385" s="56"/>
+      <c r="O385" s="56"/>
+      <c r="P385" s="56"/>
+      <c r="Q385" s="56"/>
+      <c r="R385" s="56"/>
+      <c r="S385" s="56"/>
+      <c r="T385" s="56"/>
+      <c r="U385" s="56"/>
+      <c r="V385" s="56"/>
+      <c r="W385" s="56"/>
+      <c r="X385" s="56"/>
+      <c r="Y385" s="56"/>
+      <c r="Z385" s="56"/>
+      <c r="AA385" s="56"/>
+      <c r="AB385" s="56"/>
+      <c r="AC385" s="56"/>
+      <c r="AD385" s="56"/>
+      <c r="AE385" s="56"/>
+      <c r="AF385" s="56"/>
+      <c r="AG385" s="56"/>
+      <c r="AH385" s="56"/>
+      <c r="AI385" s="56"/>
+      <c r="AJ385" s="56"/>
+      <c r="AK385" s="56"/>
+    </row>
+    <row r="386" spans="1:37" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A386" s="56"/>
+      <c r="B386" s="56"/>
+      <c r="C386" s="56"/>
+      <c r="D386" s="56"/>
+      <c r="E386" s="56"/>
+      <c r="F386" s="56"/>
+      <c r="G386" s="56"/>
+      <c r="H386" s="56"/>
+      <c r="I386" s="56"/>
+      <c r="J386" s="56"/>
+      <c r="K386" s="56"/>
+      <c r="L386" s="56"/>
+      <c r="M386" s="56"/>
+      <c r="N386" s="56"/>
+      <c r="O386" s="56"/>
+      <c r="P386" s="56"/>
+      <c r="Q386" s="56"/>
+      <c r="R386" s="56"/>
+      <c r="S386" s="56"/>
+      <c r="T386" s="56"/>
+      <c r="U386" s="56"/>
+      <c r="V386" s="56"/>
+      <c r="W386" s="56"/>
+      <c r="X386" s="56"/>
+      <c r="Y386" s="56"/>
+      <c r="Z386" s="56"/>
+      <c r="AA386" s="56"/>
+      <c r="AB386" s="56"/>
+      <c r="AC386" s="56"/>
+      <c r="AD386" s="56"/>
+      <c r="AE386" s="56"/>
+      <c r="AF386" s="56"/>
+      <c r="AG386" s="56"/>
+      <c r="AH386" s="56"/>
+      <c r="AI386" s="56"/>
+      <c r="AJ386" s="56"/>
+      <c r="AK386" s="56"/>
+    </row>
+    <row r="387" spans="1:37" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A387" s="56"/>
+      <c r="B387" s="56"/>
+      <c r="C387" s="56"/>
+      <c r="D387" s="56"/>
+      <c r="E387" s="56"/>
+      <c r="F387" s="56"/>
+      <c r="G387" s="56"/>
+      <c r="H387" s="56"/>
+      <c r="I387" s="56"/>
+      <c r="J387" s="56"/>
+      <c r="K387" s="56"/>
+      <c r="L387" s="56"/>
+      <c r="M387" s="56"/>
+      <c r="N387" s="56"/>
+      <c r="O387" s="56"/>
+      <c r="P387" s="56"/>
+      <c r="Q387" s="56"/>
+      <c r="R387" s="56"/>
+      <c r="S387" s="56"/>
+      <c r="T387" s="56"/>
+      <c r="U387" s="56"/>
+      <c r="V387" s="56"/>
+      <c r="W387" s="56"/>
+      <c r="X387" s="56"/>
+      <c r="Y387" s="56"/>
+      <c r="Z387" s="56"/>
+      <c r="AA387" s="56"/>
+      <c r="AB387" s="56"/>
+      <c r="AC387" s="56"/>
+      <c r="AD387" s="56"/>
+      <c r="AE387" s="56"/>
+      <c r="AF387" s="56"/>
+      <c r="AG387" s="56"/>
+      <c r="AH387" s="56"/>
+      <c r="AI387" s="56"/>
+      <c r="AJ387" s="56"/>
+      <c r="AK387" s="56"/>
+    </row>
+    <row r="388" spans="1:37" ht="17" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A388" s="56"/>
+      <c r="B388" s="56"/>
+      <c r="C388" s="56"/>
+      <c r="D388" s="56"/>
+      <c r="E388" s="56"/>
+      <c r="F388" s="56"/>
+      <c r="G388" s="56"/>
+      <c r="H388" s="56"/>
+      <c r="I388" s="56"/>
+      <c r="J388" s="56"/>
+      <c r="K388" s="56"/>
+      <c r="L388" s="56"/>
+      <c r="M388" s="56"/>
+      <c r="N388" s="56"/>
+      <c r="O388" s="56"/>
+      <c r="P388" s="56"/>
+      <c r="Q388" s="56"/>
+      <c r="R388" s="56"/>
+      <c r="S388" s="56"/>
+      <c r="T388" s="56"/>
+      <c r="U388" s="56"/>
+      <c r="V388" s="56"/>
+      <c r="W388" s="56"/>
+      <c r="X388" s="56"/>
+      <c r="Y388" s="56"/>
+      <c r="Z388" s="56"/>
+      <c r="AA388" s="56"/>
+      <c r="AB388" s="56"/>
+      <c r="AC388" s="56"/>
+      <c r="AD388" s="56"/>
+      <c r="AE388" s="56"/>
+      <c r="AF388" s="56"/>
+      <c r="AG388" s="56"/>
+      <c r="AH388" s="56"/>
+      <c r="AI388" s="56"/>
+      <c r="AJ388" s="56"/>
+      <c r="AK388" s="56"/>
+    </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B45:H45"/>
+    <mergeCell ref="B218:H218"/>
+    <mergeCell ref="J2:N2"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="B86:G86"/>
     <mergeCell ref="AE101:AE102"/>
     <mergeCell ref="B256:H256"/>
     <mergeCell ref="B169:G169"/>
@@ -28876,12 +30372,6 @@
     <mergeCell ref="B220:H220"/>
     <mergeCell ref="B119:G119"/>
     <mergeCell ref="B188:G188"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B45:H45"/>
-    <mergeCell ref="B218:H218"/>
-    <mergeCell ref="J2:N2"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="B86:G86"/>
   </mergeCells>
   <phoneticPr fontId="27" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -28894,10 +30384,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV90"/>
+  <dimension ref="A1:IV89"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView showGridLines="0" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57:XFD57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -28982,7 +30472,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="44" t="s">
-        <v>1063</v>
+        <v>1059</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -29017,7 +30507,7 @@
         <v>0</v>
       </c>
       <c r="C10" s="44" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="4"/>
@@ -29030,7 +30520,7 @@
         <v>0</v>
       </c>
       <c r="C11" s="44" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -29043,7 +30533,7 @@
         <v>0</v>
       </c>
       <c r="C12" s="44" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -29056,7 +30546,7 @@
         <v>2</v>
       </c>
       <c r="C13" s="44" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4"/>
@@ -29069,7 +30559,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="44" t="s">
-        <v>1148</v>
+        <v>1141</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -29082,7 +30572,7 @@
         <v>1</v>
       </c>
       <c r="C15" s="44" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -29095,7 +30585,7 @@
         <v>2</v>
       </c>
       <c r="C16" s="44" t="s">
-        <v>1068</v>
+        <v>1064</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -29108,7 +30598,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="44" t="s">
-        <v>1147</v>
+        <v>1140</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -29121,7 +30611,7 @@
         <v>1</v>
       </c>
       <c r="C18" s="44" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -29134,7 +30624,7 @@
         <v>3</v>
       </c>
       <c r="C19" s="44" t="s">
-        <v>1070</v>
+        <v>1066</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -29242,7 +30732,7 @@
         <v>1</v>
       </c>
       <c r="C29" s="44" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="D29" s="4"/>
       <c r="E29" s="4"/>
@@ -29255,7 +30745,7 @@
         <v>2</v>
       </c>
       <c r="C30" s="44" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
       <c r="D30" s="4"/>
       <c r="E30" s="4"/>
@@ -29290,7 +30780,7 @@
         <v>2</v>
       </c>
       <c r="C33" s="44" t="s">
-        <v>1073</v>
+        <v>1069</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
@@ -29303,7 +30793,7 @@
         <v>2</v>
       </c>
       <c r="C34" s="44" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
@@ -29316,7 +30806,7 @@
         <v>3</v>
       </c>
       <c r="C35" s="44" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
@@ -29329,7 +30819,7 @@
         <v>2</v>
       </c>
       <c r="C36" s="44" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
@@ -29342,7 +30832,7 @@
         <v>2</v>
       </c>
       <c r="C37" s="44" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
@@ -29417,7 +30907,7 @@
         <v>2</v>
       </c>
       <c r="C44" s="44" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="D44" s="4"/>
       <c r="E44" s="4"/>
@@ -29452,7 +30942,7 @@
         <v>3</v>
       </c>
       <c r="C47" s="44" t="s">
-        <v>1079</v>
+        <v>1151</v>
       </c>
       <c r="D47" s="4"/>
       <c r="E47" s="4"/>
@@ -29465,7 +30955,7 @@
         <v>2</v>
       </c>
       <c r="C48" s="44" t="s">
-        <v>1080</v>
+        <v>1075</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
@@ -29478,7 +30968,7 @@
         <v>3</v>
       </c>
       <c r="C49" s="44" t="s">
-        <v>1081</v>
+        <v>1076</v>
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
@@ -29498,7 +30988,7 @@
         <v>0</v>
       </c>
       <c r="C51" s="44" t="s">
-        <v>1082</v>
+        <v>1077</v>
       </c>
       <c r="D51" s="4"/>
       <c r="E51" s="4"/>
@@ -29511,7 +31001,7 @@
         <v>0</v>
       </c>
       <c r="C52" s="44" t="s">
-        <v>1083</v>
+        <v>1078</v>
       </c>
       <c r="D52" s="4"/>
       <c r="E52" s="4"/>
@@ -29524,7 +31014,7 @@
         <v>1</v>
       </c>
       <c r="C53" s="44" t="s">
-        <v>1084</v>
+        <v>1079</v>
       </c>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
@@ -29537,7 +31027,7 @@
         <v>2</v>
       </c>
       <c r="C54" s="44" t="s">
-        <v>1085</v>
+        <v>1080</v>
       </c>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
@@ -29550,7 +31040,7 @@
         <v>2</v>
       </c>
       <c r="C55" s="44" t="s">
-        <v>1086</v>
+        <v>1081</v>
       </c>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
@@ -29567,26 +31057,24 @@
       <c r="E56" s="4"/>
     </row>
     <row r="57" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="16" t="s">
-        <v>736</v>
-      </c>
-      <c r="B57" s="45">
-        <v>3</v>
-      </c>
+      <c r="A57" s="2"/>
+      <c r="B57" s="4"/>
       <c r="C57" s="2"/>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
     </row>
     <row r="58" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="2"/>
+      <c r="A58" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="B58" s="4"/>
       <c r="C58" s="2"/>
       <c r="D58" s="4"/>
       <c r="E58" s="4"/>
     </row>
     <row r="59" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="7" t="s">
-        <v>17</v>
+      <c r="A59" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="B59" s="4"/>
       <c r="C59" s="2"/>
@@ -29594,8 +31082,8 @@
       <c r="E59" s="4"/>
     </row>
     <row r="60" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="13" t="s">
-        <v>23</v>
+      <c r="A60" s="19" t="s">
+        <v>26</v>
       </c>
       <c r="B60" s="4"/>
       <c r="C60" s="2"/>
@@ -29603,8 +31091,8 @@
       <c r="E60" s="4"/>
     </row>
     <row r="61" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="19" t="s">
-        <v>26</v>
+      <c r="A61" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="B61" s="4"/>
       <c r="C61" s="2"/>
@@ -29612,8 +31100,8 @@
       <c r="E61" s="4"/>
     </row>
     <row r="62" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="7" t="s">
-        <v>28</v>
+      <c r="A62" s="13" t="s">
+        <v>34</v>
       </c>
       <c r="B62" s="4"/>
       <c r="C62" s="2"/>
@@ -29621,28 +31109,28 @@
       <c r="E62" s="4"/>
     </row>
     <row r="63" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="13" t="s">
-        <v>34</v>
+      <c r="A63" s="19" t="s">
+        <v>36</v>
       </c>
       <c r="B63" s="4"/>
-      <c r="C63" s="2"/>
+      <c r="C63" s="44" t="s">
+        <v>1082</v>
+      </c>
       <c r="D63" s="4"/>
       <c r="E63" s="4"/>
     </row>
     <row r="64" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="19" t="s">
-        <v>36</v>
+      <c r="A64" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="B64" s="4"/>
-      <c r="C64" s="44" t="s">
-        <v>1087</v>
-      </c>
+      <c r="C64" s="2"/>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
     </row>
     <row r="65" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="7" t="s">
-        <v>39</v>
+      <c r="A65" s="13" t="s">
+        <v>43</v>
       </c>
       <c r="B65" s="4"/>
       <c r="C65" s="2"/>
@@ -29650,72 +31138,72 @@
       <c r="E65" s="4"/>
     </row>
     <row r="66" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="13" t="s">
-        <v>43</v>
+      <c r="A66" s="19" t="s">
+        <v>45</v>
       </c>
       <c r="B66" s="4"/>
-      <c r="C66" s="2"/>
+      <c r="C66" s="44" t="s">
+        <v>1083</v>
+      </c>
       <c r="D66" s="4"/>
       <c r="E66" s="4"/>
     </row>
     <row r="67" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="19" t="s">
-        <v>45</v>
+      <c r="A67" s="7" t="s">
+        <v>50</v>
       </c>
       <c r="B67" s="4"/>
       <c r="C67" s="44" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="D67" s="4"/>
       <c r="E67" s="4"/>
     </row>
     <row r="68" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="7" t="s">
-        <v>50</v>
+      <c r="A68" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="B68" s="4"/>
       <c r="C68" s="44" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
       <c r="D68" s="4"/>
       <c r="E68" s="4"/>
     </row>
     <row r="69" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="13" t="s">
-        <v>58</v>
+      <c r="A69" s="19" t="s">
+        <v>61</v>
       </c>
       <c r="B69" s="4"/>
       <c r="C69" s="44" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="D69" s="4"/>
       <c r="E69" s="4"/>
     </row>
     <row r="70" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="19" t="s">
-        <v>61</v>
+      <c r="A70" s="7" t="s">
+        <v>66</v>
       </c>
       <c r="B70" s="4"/>
       <c r="C70" s="44" t="s">
-        <v>1091</v>
+        <v>1087</v>
       </c>
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
     </row>
     <row r="71" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="7" t="s">
-        <v>66</v>
+      <c r="A71" s="13" t="s">
+        <v>68</v>
       </c>
       <c r="B71" s="4"/>
-      <c r="C71" s="44" t="s">
-        <v>1092</v>
-      </c>
+      <c r="C71" s="2"/>
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
     </row>
     <row r="72" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="13" t="s">
-        <v>68</v>
+      <c r="A72" s="19" t="s">
+        <v>69</v>
       </c>
       <c r="B72" s="4"/>
       <c r="C72" s="2"/>
@@ -29723,28 +31211,28 @@
       <c r="E72" s="4"/>
     </row>
     <row r="73" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="19" t="s">
-        <v>69</v>
+      <c r="A73" s="7" t="s">
+        <v>73</v>
       </c>
       <c r="B73" s="4"/>
-      <c r="C73" s="2"/>
+      <c r="C73" s="44" t="s">
+        <v>1088</v>
+      </c>
       <c r="D73" s="4"/>
       <c r="E73" s="4"/>
     </row>
     <row r="74" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="7" t="s">
-        <v>73</v>
+      <c r="A74" s="13" t="s">
+        <v>77</v>
       </c>
       <c r="B74" s="4"/>
-      <c r="C74" s="44" t="s">
-        <v>1093</v>
-      </c>
+      <c r="C74" s="2"/>
       <c r="D74" s="4"/>
       <c r="E74" s="4"/>
     </row>
     <row r="75" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="13" t="s">
-        <v>77</v>
+      <c r="A75" s="7" t="s">
+        <v>79</v>
       </c>
       <c r="B75" s="4"/>
       <c r="C75" s="2"/>
@@ -29752,8 +31240,8 @@
       <c r="E75" s="4"/>
     </row>
     <row r="76" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="7" t="s">
-        <v>79</v>
+      <c r="A76" s="13" t="s">
+        <v>80</v>
       </c>
       <c r="B76" s="4"/>
       <c r="C76" s="2"/>
@@ -29761,158 +31249,149 @@
       <c r="E76" s="4"/>
     </row>
     <row r="77" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="13" t="s">
-        <v>80</v>
+      <c r="A77" s="19" t="s">
+        <v>81</v>
       </c>
       <c r="B77" s="4"/>
-      <c r="C77" s="2"/>
+      <c r="C77" s="44" t="s">
+        <v>1089</v>
+      </c>
       <c r="D77" s="4"/>
       <c r="E77" s="4"/>
     </row>
     <row r="78" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="19" t="s">
-        <v>81</v>
+      <c r="A78" s="13" t="s">
+        <v>87</v>
       </c>
       <c r="B78" s="4"/>
-      <c r="C78" s="44" t="s">
-        <v>1094</v>
-      </c>
+      <c r="C78" s="2"/>
       <c r="D78" s="4"/>
       <c r="E78" s="4"/>
     </row>
     <row r="79" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="13" t="s">
-        <v>87</v>
+      <c r="A79" s="19" t="s">
+        <v>90</v>
       </c>
       <c r="B79" s="4"/>
-      <c r="C79" s="2"/>
+      <c r="C79" s="44" t="s">
+        <v>1090</v>
+      </c>
       <c r="D79" s="4"/>
       <c r="E79" s="4"/>
     </row>
     <row r="80" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="B80" s="4"/>
+      <c r="A80" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B80" s="45">
+        <v>1</v>
+      </c>
       <c r="C80" s="44" t="s">
-        <v>1095</v>
+        <v>1091</v>
       </c>
       <c r="D80" s="4"/>
       <c r="E80" s="4"/>
     </row>
     <row r="81" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="7" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B81" s="45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C81" s="44" t="s">
-        <v>1096</v>
+        <v>1157</v>
       </c>
       <c r="D81" s="4"/>
       <c r="E81" s="4"/>
     </row>
     <row r="82" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="B82" s="45">
-        <v>2</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="B82" s="4"/>
       <c r="C82" s="44" t="s">
-        <v>1097</v>
+        <v>1139</v>
       </c>
       <c r="D82" s="4"/>
       <c r="E82" s="4"/>
     </row>
     <row r="83" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="7" t="s">
-        <v>93</v>
+      <c r="A83" s="13" t="s">
+        <v>99</v>
       </c>
       <c r="B83" s="4"/>
       <c r="C83" s="44" t="s">
-        <v>1146</v>
+        <v>1092</v>
       </c>
       <c r="D83" s="4"/>
       <c r="E83" s="4"/>
     </row>
     <row r="84" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="13" t="s">
-        <v>99</v>
+      <c r="A84" s="7" t="s">
+        <v>103</v>
       </c>
       <c r="B84" s="4"/>
       <c r="C84" s="44" t="s">
-        <v>1098</v>
+        <v>1093</v>
       </c>
       <c r="D84" s="4"/>
       <c r="E84" s="4"/>
     </row>
     <row r="85" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B85" s="4"/>
       <c r="C85" s="44" t="s">
-        <v>1099</v>
+        <v>1094</v>
       </c>
       <c r="D85" s="4"/>
       <c r="E85" s="4"/>
     </row>
     <row r="86" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="7" t="s">
-        <v>104</v>
+      <c r="A86" s="13" t="s">
+        <v>107</v>
       </c>
       <c r="B86" s="4"/>
       <c r="C86" s="44" t="s">
-        <v>1100</v>
+        <v>1095</v>
       </c>
       <c r="D86" s="4"/>
       <c r="E86" s="4"/>
     </row>
     <row r="87" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="13" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B87" s="4"/>
       <c r="C87" s="44" t="s">
-        <v>1101</v>
+        <v>1094</v>
       </c>
       <c r="D87" s="4"/>
       <c r="E87" s="4"/>
     </row>
     <row r="88" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="13" t="s">
-        <v>109</v>
+      <c r="A88" s="19" t="s">
+        <v>111</v>
       </c>
       <c r="B88" s="4"/>
       <c r="C88" s="44" t="s">
-        <v>1100</v>
+        <v>1095</v>
       </c>
       <c r="D88" s="4"/>
       <c r="E88" s="4"/>
     </row>
     <row r="89" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="19" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B89" s="4"/>
       <c r="C89" s="44" t="s">
-        <v>1101</v>
+        <v>1094</v>
       </c>
       <c r="D89" s="4"/>
       <c r="E89" s="4"/>
-    </row>
-    <row r="90" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="19" t="s">
-        <v>114</v>
-      </c>
-      <c r="B90" s="4"/>
-      <c r="C90" s="44" t="s">
-        <v>1100</v>
-      </c>
-      <c r="D90" s="4"/>
-      <c r="E90" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="27" type="noConversion"/>
@@ -29946,7 +31425,7 @@
         <v>244</v>
       </c>
       <c r="C1" s="44" t="s">
-        <v>1102</v>
+        <v>1096</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -29959,7 +31438,7 @@
         <v>252</v>
       </c>
       <c r="C2" s="44" t="s">
-        <v>1102</v>
+        <v>1096</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -29985,7 +31464,7 @@
         <v>264</v>
       </c>
       <c r="C4" s="44" t="s">
-        <v>1103</v>
+        <v>1097</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -29998,7 +31477,7 @@
         <v>274</v>
       </c>
       <c r="C5" s="44" t="s">
-        <v>1104</v>
+        <v>1098</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -30011,7 +31490,7 @@
         <v>285</v>
       </c>
       <c r="C6" s="44" t="s">
-        <v>1105</v>
+        <v>1099</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -30024,7 +31503,7 @@
         <v>298</v>
       </c>
       <c r="C7" s="44" t="s">
-        <v>1106</v>
+        <v>1100</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -30037,7 +31516,7 @@
         <v>306</v>
       </c>
       <c r="C8" s="44" t="s">
-        <v>1106</v>
+        <v>1100</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -30076,7 +31555,7 @@
         <v>328</v>
       </c>
       <c r="C11" s="44" t="s">
-        <v>1107</v>
+        <v>1101</v>
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="4"/>
@@ -30089,7 +31568,7 @@
         <v>330</v>
       </c>
       <c r="C12" s="44" t="s">
-        <v>1108</v>
+        <v>1102</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="4"/>
@@ -30112,10 +31591,10 @@
         <v>223</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>1109</v>
+        <v>1103</v>
       </c>
       <c r="C14" s="44" t="s">
-        <v>1110</v>
+        <v>1104</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -30128,7 +31607,7 @@
         <v>343</v>
       </c>
       <c r="C15" s="44" t="s">
-        <v>1111</v>
+        <v>1105</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -30138,10 +31617,10 @@
         <v>355</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>1112</v>
+        <v>1106</v>
       </c>
       <c r="C16" s="44" t="s">
-        <v>1113</v>
+        <v>1107</v>
       </c>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
@@ -30154,7 +31633,7 @@
         <v>364</v>
       </c>
       <c r="C17" s="44" t="s">
-        <v>1114</v>
+        <v>1108</v>
       </c>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
@@ -30167,7 +31646,7 @@
         <v>370</v>
       </c>
       <c r="C18" s="44" t="s">
-        <v>1115</v>
+        <v>1109</v>
       </c>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
@@ -30180,7 +31659,7 @@
         <v>373</v>
       </c>
       <c r="C19" s="44" t="s">
-        <v>1116</v>
+        <v>1110</v>
       </c>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
@@ -30200,7 +31679,7 @@
         <v>414</v>
       </c>
       <c r="C21" s="44" t="s">
-        <v>1117</v>
+        <v>1111</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
@@ -30226,7 +31705,7 @@
         <v>428</v>
       </c>
       <c r="C23" s="44" t="s">
-        <v>1118</v>
+        <v>1112</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
@@ -30252,7 +31731,7 @@
         <v>450</v>
       </c>
       <c r="C25" s="44" t="s">
-        <v>1117</v>
+        <v>1111</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
@@ -30324,7 +31803,7 @@
         <v>486</v>
       </c>
       <c r="C31" s="44" t="s">
-        <v>1119</v>
+        <v>1113</v>
       </c>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
@@ -30337,7 +31816,7 @@
         <v>493</v>
       </c>
       <c r="C32" s="44" t="s">
-        <v>1120</v>
+        <v>1114</v>
       </c>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
@@ -30453,7 +31932,7 @@
         <v>630</v>
       </c>
       <c r="C42" s="44" t="s">
-        <v>1121</v>
+        <v>1115</v>
       </c>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
@@ -30466,7 +31945,7 @@
         <v>639</v>
       </c>
       <c r="C43" s="44" t="s">
-        <v>1122</v>
+        <v>1116</v>
       </c>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
@@ -30501,7 +31980,7 @@
         <v>503</v>
       </c>
       <c r="C46" s="44" t="s">
-        <v>1123</v>
+        <v>1117</v>
       </c>
       <c r="D46" s="4"/>
       <c r="E46" s="4"/>
@@ -30525,7 +32004,7 @@
         <v>663</v>
       </c>
       <c r="C48" s="44" t="s">
-        <v>1124</v>
+        <v>1118</v>
       </c>
       <c r="D48" s="4"/>
       <c r="E48" s="4"/>
@@ -30538,7 +32017,7 @@
         <v>671</v>
       </c>
       <c r="C49" s="44" t="s">
-        <v>1125</v>
+        <v>1119</v>
       </c>
       <c r="D49" s="4"/>
       <c r="E49" s="4"/>
@@ -30551,7 +32030,7 @@
         <v>678</v>
       </c>
       <c r="C50" s="44" t="s">
-        <v>1126</v>
+        <v>1120</v>
       </c>
       <c r="D50" s="4"/>
       <c r="E50" s="4"/>
@@ -30582,7 +32061,7 @@
         <v>706</v>
       </c>
       <c r="C53" s="44" t="s">
-        <v>1127</v>
+        <v>1121</v>
       </c>
       <c r="D53" s="4"/>
       <c r="E53" s="4"/>
@@ -30595,7 +32074,7 @@
         <v>706</v>
       </c>
       <c r="C54" s="44" t="s">
-        <v>1127</v>
+        <v>1121</v>
       </c>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
@@ -30608,7 +32087,7 @@
         <v>706</v>
       </c>
       <c r="C55" s="44" t="s">
-        <v>1127</v>
+        <v>1121</v>
       </c>
       <c r="D55" s="4"/>
       <c r="E55" s="4"/>
@@ -30621,7 +32100,7 @@
         <v>450</v>
       </c>
       <c r="C56" s="44" t="s">
-        <v>1117</v>
+        <v>1111</v>
       </c>
       <c r="D56" s="4"/>
       <c r="E56" s="4"/>
@@ -30634,7 +32113,7 @@
         <v>721</v>
       </c>
       <c r="C57" s="44" t="s">
-        <v>1114</v>
+        <v>1108</v>
       </c>
       <c r="D57" s="4"/>
       <c r="E57" s="4"/>
@@ -31369,31 +32848,31 @@
       <c r="F26" s="4"/>
       <c r="G26" s="4"/>
       <c r="H26" s="44" t="s">
+        <v>1122</v>
+      </c>
+      <c r="I26" s="44" t="s">
+        <v>1123</v>
+      </c>
+      <c r="J26" s="44" t="s">
+        <v>1124</v>
+      </c>
+      <c r="K26" s="44" t="s">
+        <v>1125</v>
+      </c>
+      <c r="L26" s="44" t="s">
+        <v>1126</v>
+      </c>
+      <c r="M26" s="44" t="s">
+        <v>1127</v>
+      </c>
+      <c r="N26" s="44" t="s">
         <v>1128</v>
       </c>
-      <c r="I26" s="44" t="s">
+      <c r="O26" s="44" t="s">
         <v>1129</v>
       </c>
-      <c r="J26" s="44" t="s">
+      <c r="P26" s="44" t="s">
         <v>1130</v>
-      </c>
-      <c r="K26" s="44" t="s">
-        <v>1131</v>
-      </c>
-      <c r="L26" s="44" t="s">
-        <v>1132</v>
-      </c>
-      <c r="M26" s="44" t="s">
-        <v>1133</v>
-      </c>
-      <c r="N26" s="44" t="s">
-        <v>1134</v>
-      </c>
-      <c r="O26" s="44" t="s">
-        <v>1135</v>
-      </c>
-      <c r="P26" s="44" t="s">
-        <v>1136</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" s="2"/>

--- a/MyGame/红警3数据大全new.xlsx
+++ b/MyGame/红警3数据大全new.xlsx
@@ -3625,10 +3625,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.00&quot; &quot;;\(0.00\)"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="47">
     <font>
@@ -3771,10 +3771,42 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3793,26 +3825,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Helvetica"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3823,11 +3840,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3840,24 +3856,22 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3872,7 +3886,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3880,7 +3894,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3888,14 +3909,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3903,20 +3917,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3961,7 +3961,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3973,43 +3991,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4021,19 +4021,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4045,7 +4033,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4057,7 +4051,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4069,61 +4087,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4141,7 +4105,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4174,7 +4174,70 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4204,214 +4267,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -5864,8 +5864,8 @@
   <sheetPr/>
   <dimension ref="A1:AK389"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A308" workbookViewId="0">
-      <selection activeCell="G248" sqref="G248"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A302" workbookViewId="0">
+      <selection activeCell="B322" sqref="B322"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" customHeight="1"/>
@@ -28545,1014 +28545,814 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E89"/>
+  <dimension ref="A1:D89"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+    <sheetView showGridLines="0" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="A88" sqref="A88:B89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" customHeight="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" customHeight="1" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="17" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="1" customWidth="1"/>
-    <col min="3" max="3" width="30.5" style="1" customWidth="1"/>
-    <col min="4" max="256" width="9" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.5" style="1" customWidth="1"/>
+    <col min="3" max="255" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17" customHeight="1" spans="1:5">
+    <row r="1" ht="17" customHeight="1" spans="1:4">
       <c r="A1" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="B1" s="3">
-        <v>0</v>
-      </c>
-      <c r="C1" s="4"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="2"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" ht="17" customHeight="1" spans="1:5">
+    </row>
+    <row r="2" ht="17" customHeight="1" spans="1:4">
       <c r="A2" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="B2" s="3">
-        <v>0</v>
-      </c>
-      <c r="C2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" ht="17" customHeight="1" spans="1:5">
+    </row>
+    <row r="3" ht="17" customHeight="1" spans="1:4">
       <c r="A3" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="B3" s="3">
-        <v>0</v>
-      </c>
-      <c r="C3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" ht="17" customHeight="1" spans="1:5">
+    </row>
+    <row r="4" ht="17" customHeight="1" spans="1:4">
       <c r="A4" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="B4" s="3">
-        <v>0</v>
-      </c>
-      <c r="C4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="2"/>
       <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" ht="17" customHeight="1" spans="1:5">
+    </row>
+    <row r="5" ht="17" customHeight="1" spans="1:4">
       <c r="A5" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="B5" s="3">
-        <v>0</v>
-      </c>
-      <c r="C5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" ht="17" customHeight="1" spans="1:5">
+    </row>
+    <row r="6" ht="17" customHeight="1" spans="1:4">
       <c r="A6" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="B6" s="3">
-        <v>0</v>
-      </c>
-      <c r="C6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" ht="17" customHeight="1" spans="1:5">
+    </row>
+    <row r="7" ht="17" customHeight="1" spans="1:4">
       <c r="A7" s="7" t="s">
         <v>208</v>
       </c>
-      <c r="B7" s="3">
-        <v>1</v>
-      </c>
-      <c r="C7" s="5" t="s">
+      <c r="B7" s="5" t="s">
         <v>1083</v>
       </c>
+      <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" ht="17" customHeight="1" spans="1:5">
+    </row>
+    <row r="8" ht="17" customHeight="1" spans="1:4">
       <c r="A8" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="B8" s="3">
-        <v>0</v>
-      </c>
-      <c r="C8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" ht="17" customHeight="1" spans="1:5">
+    </row>
+    <row r="9" ht="17" customHeight="1" spans="1:4">
       <c r="A9" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="B9" s="3">
-        <v>1</v>
-      </c>
-      <c r="C9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="2"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" ht="17" customHeight="1" spans="1:5">
+    </row>
+    <row r="10" ht="17" customHeight="1" spans="1:4">
       <c r="A10" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="B10" s="3">
-        <v>0</v>
-      </c>
-      <c r="C10" s="5" t="s">
+      <c r="B10" s="5" t="s">
         <v>1084</v>
       </c>
+      <c r="C10" s="2"/>
       <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-    </row>
-    <row r="11" ht="17" customHeight="1" spans="1:5">
+    </row>
+    <row r="11" ht="17" customHeight="1" spans="1:4">
       <c r="A11" s="8" t="s">
         <v>327</v>
       </c>
-      <c r="B11" s="3">
-        <v>0</v>
-      </c>
-      <c r="C11" s="5" t="s">
+      <c r="B11" s="5" t="s">
         <v>1085</v>
       </c>
+      <c r="C11" s="2"/>
       <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" ht="17" customHeight="1" spans="1:5">
+    </row>
+    <row r="12" ht="17" customHeight="1" spans="1:4">
       <c r="A12" s="9" t="s">
         <v>329</v>
       </c>
-      <c r="B12" s="3">
-        <v>0</v>
-      </c>
-      <c r="C12" s="5" t="s">
+      <c r="B12" s="5" t="s">
         <v>1085</v>
       </c>
+      <c r="C12" s="2"/>
       <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-    </row>
-    <row r="13" ht="17" customHeight="1" spans="1:5">
+    </row>
+    <row r="13" ht="17" customHeight="1" spans="1:4">
       <c r="A13" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="B13" s="3">
-        <v>2</v>
-      </c>
-      <c r="C13" s="5" t="s">
+      <c r="B13" s="5" t="s">
         <v>1086</v>
       </c>
+      <c r="C13" s="2"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-    </row>
-    <row r="14" ht="17" customHeight="1" spans="1:5">
+    </row>
+    <row r="14" ht="17" customHeight="1" spans="1:4">
       <c r="A14" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="B14" s="3">
-        <v>2</v>
-      </c>
-      <c r="C14" s="5" t="s">
+      <c r="B14" s="5" t="s">
         <v>1087</v>
       </c>
+      <c r="C14" s="2"/>
       <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" ht="17" customHeight="1" spans="1:5">
+    </row>
+    <row r="15" ht="17" customHeight="1" spans="1:4">
       <c r="A15" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="B15" s="3">
-        <v>1</v>
-      </c>
-      <c r="C15" s="5" t="s">
+      <c r="B15" s="5" t="s">
         <v>1088</v>
       </c>
+      <c r="C15" s="2"/>
       <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" ht="17" customHeight="1" spans="1:5">
+    </row>
+    <row r="16" ht="17" customHeight="1" spans="1:4">
       <c r="A16" s="9" t="s">
         <v>355</v>
       </c>
-      <c r="B16" s="3">
-        <v>2</v>
-      </c>
-      <c r="C16" s="5" t="s">
+      <c r="B16" s="5" t="s">
         <v>1089</v>
       </c>
+      <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" ht="17" customHeight="1" spans="1:5">
+    </row>
+    <row r="17" ht="17" customHeight="1" spans="1:4">
       <c r="A17" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="B17" s="3">
-        <v>1</v>
-      </c>
-      <c r="C17" s="5" t="s">
+      <c r="B17" s="5" t="s">
         <v>1090</v>
       </c>
+      <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" ht="17" customHeight="1" spans="1:5">
+    </row>
+    <row r="18" ht="17" customHeight="1" spans="1:4">
       <c r="A18" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="B18" s="3">
-        <v>1</v>
-      </c>
-      <c r="C18" s="5" t="s">
+      <c r="B18" s="5" t="s">
         <v>1091</v>
       </c>
+      <c r="C18" s="2"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" ht="17" customHeight="1" spans="1:5">
+    </row>
+    <row r="19" ht="17" customHeight="1" spans="1:4">
       <c r="A19" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="B19" s="3">
-        <v>3</v>
-      </c>
-      <c r="C19" s="5" t="s">
+      <c r="B19" s="5" t="s">
         <v>1092</v>
       </c>
+      <c r="C19" s="2"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" ht="17" customHeight="1" spans="1:5">
+    </row>
+    <row r="20" ht="17" customHeight="1" spans="1:4">
       <c r="A20" s="4"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="2"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" ht="17" customHeight="1" spans="1:5">
+    </row>
+    <row r="21" ht="17" customHeight="1" spans="1:4">
       <c r="A21" s="9" t="s">
         <v>413</v>
       </c>
-      <c r="B21" s="3">
-        <v>1</v>
-      </c>
-      <c r="C21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="2"/>
       <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" ht="17" customHeight="1" spans="1:5">
+    </row>
+    <row r="22" ht="17" customHeight="1" spans="1:4">
       <c r="A22" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="B22" s="3">
-        <v>0</v>
-      </c>
-      <c r="C22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="2"/>
       <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" ht="17" customHeight="1" spans="1:5">
+    </row>
+    <row r="23" ht="17" customHeight="1" spans="1:4">
       <c r="A23" s="7" t="s">
         <v>442</v>
       </c>
-      <c r="B23" s="3">
-        <v>1</v>
-      </c>
-      <c r="C23" s="16"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="2"/>
       <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" ht="17" customHeight="1" spans="1:5">
+    </row>
+    <row r="24" ht="17" customHeight="1" spans="1:4">
       <c r="A24" s="8" t="s">
         <v>449</v>
       </c>
-      <c r="B24" s="3">
-        <v>0</v>
-      </c>
-      <c r="C24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="2"/>
       <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-    </row>
-    <row r="25" ht="17" customHeight="1" spans="1:5">
+    </row>
+    <row r="25" ht="17" customHeight="1" spans="1:4">
       <c r="A25" s="9" t="s">
         <v>457</v>
       </c>
-      <c r="B25" s="3">
-        <v>0</v>
-      </c>
-      <c r="C25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="2"/>
       <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26" ht="17" customHeight="1" spans="1:5">
+    </row>
+    <row r="26" ht="17" customHeight="1" spans="1:4">
       <c r="A26" s="8" t="s">
         <v>462</v>
       </c>
-      <c r="B26" s="3">
-        <v>1</v>
-      </c>
-      <c r="C26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="2"/>
       <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-    </row>
-    <row r="27" ht="17" customHeight="1" spans="1:5">
+    </row>
+    <row r="27" ht="17" customHeight="1" spans="1:4">
       <c r="A27" s="7" t="s">
         <v>472</v>
       </c>
-      <c r="B27" s="3">
-        <v>1</v>
-      </c>
-      <c r="C27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="2"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28" ht="17" customHeight="1" spans="1:5">
+    </row>
+    <row r="28" ht="17" customHeight="1" spans="1:4">
       <c r="A28" s="9" t="s">
         <v>475</v>
       </c>
-      <c r="B28" s="3">
-        <v>1</v>
-      </c>
-      <c r="C28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="2"/>
       <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-    </row>
-    <row r="29" ht="17" customHeight="1" spans="1:5">
+    </row>
+    <row r="29" ht="17" customHeight="1" spans="1:4">
       <c r="A29" s="7" t="s">
         <v>485</v>
       </c>
-      <c r="B29" s="3">
-        <v>1</v>
-      </c>
-      <c r="C29" s="5" t="s">
+      <c r="B29" s="5" t="s">
         <v>1093</v>
       </c>
+      <c r="C29" s="2"/>
       <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-    </row>
-    <row r="30" ht="17" customHeight="1" spans="1:5">
+    </row>
+    <row r="30" ht="17" customHeight="1" spans="1:4">
       <c r="A30" s="9" t="s">
         <v>480</v>
       </c>
-      <c r="B30" s="3">
-        <v>2</v>
-      </c>
-      <c r="C30" s="5" t="s">
+      <c r="B30" s="5" t="s">
         <v>1094</v>
       </c>
+      <c r="C30" s="2"/>
       <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-    </row>
-    <row r="31" ht="17" customHeight="1" spans="1:5">
+    </row>
+    <row r="31" ht="17" customHeight="1" spans="1:4">
       <c r="A31" s="8" t="s">
         <v>492</v>
       </c>
-      <c r="B31" s="3">
-        <v>1</v>
-      </c>
-      <c r="C31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="2"/>
       <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-    </row>
-    <row r="32" ht="17" customHeight="1" spans="1:5">
+    </row>
+    <row r="32" ht="17" customHeight="1" spans="1:4">
       <c r="A32" s="8" t="s">
         <v>496</v>
       </c>
-      <c r="B32" s="3">
-        <v>3</v>
-      </c>
-      <c r="C32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="2"/>
       <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-    </row>
-    <row r="33" ht="17" customHeight="1" spans="1:5">
+    </row>
+    <row r="33" ht="17" customHeight="1" spans="1:4">
       <c r="A33" s="7" t="s">
         <v>518</v>
       </c>
-      <c r="B33" s="3">
-        <v>2</v>
-      </c>
-      <c r="C33" s="5" t="s">
+      <c r="B33" s="5" t="s">
         <v>1095</v>
       </c>
+      <c r="C33" s="2"/>
       <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-    </row>
-    <row r="34" ht="17" customHeight="1" spans="1:5">
+    </row>
+    <row r="34" ht="17" customHeight="1" spans="1:4">
       <c r="A34" s="9" t="s">
         <v>531</v>
       </c>
-      <c r="B34" s="3">
-        <v>2</v>
-      </c>
-      <c r="C34" s="5" t="s">
+      <c r="B34" s="5" t="s">
         <v>1096</v>
       </c>
+      <c r="C34" s="2"/>
       <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-    </row>
-    <row r="35" ht="17" customHeight="1" spans="1:5">
+    </row>
+    <row r="35" ht="17" customHeight="1" spans="1:4">
       <c r="A35" s="7" t="s">
         <v>540</v>
       </c>
-      <c r="B35" s="3">
-        <v>3</v>
-      </c>
-      <c r="C35" s="5" t="s">
+      <c r="B35" s="5" t="s">
         <v>1097</v>
       </c>
+      <c r="C35" s="2"/>
       <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-    </row>
-    <row r="36" ht="17" customHeight="1" spans="1:5">
+    </row>
+    <row r="36" ht="17" customHeight="1" spans="1:4">
       <c r="A36" s="8" t="s">
         <v>550</v>
       </c>
-      <c r="B36" s="3">
-        <v>2</v>
-      </c>
-      <c r="C36" s="5" t="s">
+      <c r="B36" s="5" t="s">
         <v>1098</v>
       </c>
+      <c r="C36" s="2"/>
       <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-    </row>
-    <row r="37" ht="17" customHeight="1" spans="1:5">
+    </row>
+    <row r="37" ht="17" customHeight="1" spans="1:4">
       <c r="A37" s="9" t="s">
         <v>554</v>
       </c>
-      <c r="B37" s="3">
-        <v>2</v>
-      </c>
-      <c r="C37" s="5" t="s">
+      <c r="B37" s="5" t="s">
         <v>1099</v>
       </c>
+      <c r="C37" s="2"/>
       <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-    </row>
-    <row r="38" ht="17" customHeight="1" spans="1:5">
+    </row>
+    <row r="38" ht="17" customHeight="1" spans="1:4">
       <c r="A38" s="4"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="2"/>
       <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-    </row>
-    <row r="39" ht="17" customHeight="1" spans="1:5">
+    </row>
+    <row r="39" ht="17" customHeight="1" spans="1:4">
       <c r="A39" s="10" t="s">
         <v>615</v>
       </c>
-      <c r="B39" s="3">
-        <v>0</v>
-      </c>
-      <c r="C39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-    </row>
-    <row r="40" ht="17" customHeight="1" spans="1:5">
+    </row>
+    <row r="40" ht="17" customHeight="1" spans="1:4">
       <c r="A40" s="11" t="s">
         <v>621</v>
       </c>
-      <c r="B40" s="3">
-        <v>1</v>
-      </c>
-      <c r="C40" s="5"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="2"/>
       <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-    </row>
-    <row r="41" ht="17" customHeight="1" spans="1:5">
+    </row>
+    <row r="41" ht="17" customHeight="1" spans="1:4">
       <c r="A41" s="12" t="s">
         <v>629</v>
       </c>
-      <c r="B41" s="3">
-        <v>0</v>
-      </c>
-      <c r="C41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="2"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-    </row>
-    <row r="42" ht="17" customHeight="1" spans="1:5">
+    </row>
+    <row r="42" ht="17" customHeight="1" spans="1:4">
       <c r="A42" s="10" t="s">
         <v>638</v>
       </c>
-      <c r="B42" s="3">
-        <v>1</v>
-      </c>
-      <c r="C42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="2"/>
       <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-    </row>
-    <row r="43" ht="17" customHeight="1" spans="1:5">
+    </row>
+    <row r="43" ht="17" customHeight="1" spans="1:4">
       <c r="A43" s="12" t="s">
         <v>643</v>
       </c>
-      <c r="B43" s="3">
-        <v>1</v>
-      </c>
-      <c r="C43" s="5"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="2"/>
       <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-    </row>
-    <row r="44" ht="17" customHeight="1" spans="1:5">
+    </row>
+    <row r="44" ht="17" customHeight="1" spans="1:4">
       <c r="A44" s="11" t="s">
         <v>650</v>
       </c>
-      <c r="B44" s="3">
-        <v>2</v>
-      </c>
-      <c r="C44" s="5" t="s">
+      <c r="B44" s="5" t="s">
         <v>1100</v>
       </c>
+      <c r="C44" s="2"/>
       <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-    </row>
-    <row r="45" ht="17" customHeight="1" spans="1:5">
+    </row>
+    <row r="45" ht="17" customHeight="1" spans="1:4">
       <c r="A45" s="10" t="s">
         <v>502</v>
       </c>
-      <c r="B45" s="3">
-        <v>2</v>
-      </c>
-      <c r="C45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="2"/>
       <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-    </row>
-    <row r="46" ht="17" customHeight="1" spans="1:5">
+    </row>
+    <row r="46" ht="17" customHeight="1" spans="1:4">
       <c r="A46" s="12" t="s">
         <v>656</v>
       </c>
-      <c r="B46" s="3">
-        <v>1</v>
-      </c>
-      <c r="C46" s="5"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="2"/>
       <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
-    </row>
-    <row r="47" ht="17" customHeight="1" spans="1:5">
+    </row>
+    <row r="47" ht="17" customHeight="1" spans="1:4">
       <c r="A47" s="11" t="s">
         <v>662</v>
       </c>
-      <c r="B47" s="3">
-        <v>3</v>
-      </c>
-      <c r="C47" s="5" t="s">
+      <c r="B47" s="5" t="s">
         <v>1101</v>
       </c>
+      <c r="C47" s="2"/>
       <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-    </row>
-    <row r="48" ht="17" customHeight="1" spans="1:5">
+    </row>
+    <row r="48" ht="17" customHeight="1" spans="1:4">
       <c r="A48" s="10" t="s">
         <v>670</v>
       </c>
-      <c r="B48" s="3">
-        <v>2</v>
-      </c>
-      <c r="C48" s="5" t="s">
+      <c r="B48" s="5" t="s">
         <v>1102</v>
       </c>
+      <c r="C48" s="2"/>
       <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-    </row>
-    <row r="49" ht="17" customHeight="1" spans="1:5">
+    </row>
+    <row r="49" ht="17" customHeight="1" spans="1:4">
       <c r="A49" s="12" t="s">
         <v>677</v>
       </c>
-      <c r="B49" s="3">
-        <v>3</v>
-      </c>
-      <c r="C49" s="5" t="s">
+      <c r="B49" s="5" t="s">
         <v>1103</v>
       </c>
+      <c r="C49" s="2"/>
       <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-    </row>
-    <row r="50" ht="17" customHeight="1" spans="1:5">
+    </row>
+    <row r="50" ht="17" customHeight="1" spans="1:4">
       <c r="A50" s="4"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="2"/>
       <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-    </row>
-    <row r="51" ht="17" customHeight="1" spans="1:5">
+    </row>
+    <row r="51" ht="17" customHeight="1" spans="1:4">
       <c r="A51" s="11" t="s">
         <v>705</v>
       </c>
-      <c r="B51" s="3">
-        <v>0</v>
-      </c>
-      <c r="C51" s="5" t="s">
+      <c r="B51" s="5" t="s">
         <v>1104</v>
       </c>
+      <c r="C51" s="2"/>
       <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-    </row>
-    <row r="52" ht="17" customHeight="1" spans="1:5">
+    </row>
+    <row r="52" ht="17" customHeight="1" spans="1:4">
       <c r="A52" s="10" t="s">
         <v>709</v>
       </c>
-      <c r="B52" s="3">
-        <v>0</v>
-      </c>
-      <c r="C52" s="5" t="s">
+      <c r="B52" s="5" t="s">
         <v>1105</v>
       </c>
+      <c r="C52" s="2"/>
       <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-    </row>
-    <row r="53" ht="17" customHeight="1" spans="1:5">
+    </row>
+    <row r="53" ht="17" customHeight="1" spans="1:4">
       <c r="A53" s="15" t="s">
         <v>710</v>
       </c>
-      <c r="B53" s="3">
-        <v>1</v>
-      </c>
-      <c r="C53" s="5" t="s">
+      <c r="B53" s="5" t="s">
         <v>1106</v>
       </c>
+      <c r="C53" s="2"/>
       <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
-    </row>
-    <row r="54" ht="17" customHeight="1" spans="1:5">
+    </row>
+    <row r="54" ht="17" customHeight="1" spans="1:4">
       <c r="A54" s="11" t="s">
         <v>712</v>
       </c>
-      <c r="B54" s="3">
-        <v>2</v>
-      </c>
-      <c r="C54" s="5" t="s">
+      <c r="B54" s="5" t="s">
         <v>1107</v>
       </c>
+      <c r="C54" s="2"/>
       <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-    </row>
-    <row r="55" ht="17" customHeight="1" spans="1:5">
+    </row>
+    <row r="55" ht="17" customHeight="1" spans="1:4">
       <c r="A55" s="10" t="s">
         <v>720</v>
       </c>
-      <c r="B55" s="3">
-        <v>2</v>
-      </c>
-      <c r="C55" s="5" t="s">
+      <c r="B55" s="5" t="s">
         <v>1108</v>
       </c>
+      <c r="C55" s="2"/>
       <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-    </row>
-    <row r="56" ht="17" customHeight="1" spans="1:5">
+    </row>
+    <row r="56" ht="17" customHeight="1" spans="1:4">
       <c r="A56" s="11" t="s">
         <v>732</v>
       </c>
-      <c r="B56" s="3">
-        <v>1</v>
-      </c>
-      <c r="C56" s="4"/>
+      <c r="B56" s="4"/>
+      <c r="C56" s="2"/>
       <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-    </row>
-    <row r="57" ht="17" customHeight="1" spans="1:5">
+    </row>
+    <row r="57" ht="17" customHeight="1" spans="1:4">
       <c r="A57" s="4"/>
-      <c r="B57" s="2"/>
-      <c r="C57" s="4"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="2"/>
       <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-    </row>
-    <row r="58" ht="17" customHeight="1" spans="1:5">
+    </row>
+    <row r="58" ht="17" customHeight="1" spans="1:4">
       <c r="A58" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B58" s="2"/>
-      <c r="C58" s="4"/>
+      <c r="B58" s="4"/>
+      <c r="C58" s="2"/>
       <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-    </row>
-    <row r="59" ht="17" customHeight="1" spans="1:5">
+    </row>
+    <row r="59" ht="17" customHeight="1" spans="1:4">
       <c r="A59" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B59" s="2"/>
-      <c r="C59" s="4"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="2"/>
       <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-    </row>
-    <row r="60" ht="17" customHeight="1" spans="1:5">
+    </row>
+    <row r="60" ht="17" customHeight="1" spans="1:4">
       <c r="A60" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B60" s="2"/>
-      <c r="C60" s="4"/>
+      <c r="B60" s="4"/>
+      <c r="C60" s="2"/>
       <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-    </row>
-    <row r="61" ht="17" customHeight="1" spans="1:5">
+    </row>
+    <row r="61" ht="17" customHeight="1" spans="1:4">
       <c r="A61" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B61" s="2"/>
-      <c r="C61" s="4"/>
+      <c r="B61" s="4"/>
+      <c r="C61" s="2"/>
       <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-    </row>
-    <row r="62" ht="17" customHeight="1" spans="1:5">
+    </row>
+    <row r="62" ht="17" customHeight="1" spans="1:4">
       <c r="A62" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B62" s="2"/>
-      <c r="C62" s="4"/>
+      <c r="B62" s="4"/>
+      <c r="C62" s="2"/>
       <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
-    </row>
-    <row r="63" ht="17" customHeight="1" spans="1:5">
+    </row>
+    <row r="63" ht="17" customHeight="1" spans="1:4">
       <c r="A63" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B63" s="2"/>
-      <c r="C63" s="5" t="s">
+      <c r="B63" s="5" t="s">
         <v>1109</v>
       </c>
+      <c r="C63" s="2"/>
       <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
-    </row>
-    <row r="64" ht="17" customHeight="1" spans="1:5">
+    </row>
+    <row r="64" ht="17" customHeight="1" spans="1:4">
       <c r="A64" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B64" s="2"/>
-      <c r="C64" s="4"/>
+      <c r="B64" s="4"/>
+      <c r="C64" s="2"/>
       <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
-    </row>
-    <row r="65" ht="17" customHeight="1" spans="1:5">
+    </row>
+    <row r="65" ht="17" customHeight="1" spans="1:4">
       <c r="A65" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B65" s="2"/>
-      <c r="C65" s="4"/>
+      <c r="B65" s="4"/>
+      <c r="C65" s="2"/>
       <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
-    </row>
-    <row r="66" ht="17" customHeight="1" spans="1:5">
+    </row>
+    <row r="66" ht="17" customHeight="1" spans="1:4">
       <c r="A66" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B66" s="2"/>
-      <c r="C66" s="5" t="s">
+      <c r="B66" s="5" t="s">
         <v>1110</v>
       </c>
+      <c r="C66" s="2"/>
       <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
-    </row>
-    <row r="67" ht="17" customHeight="1" spans="1:5">
+    </row>
+    <row r="67" ht="17" customHeight="1" spans="1:4">
       <c r="A67" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B67" s="2"/>
-      <c r="C67" s="5" t="s">
+      <c r="B67" s="5" t="s">
         <v>1111</v>
       </c>
+      <c r="C67" s="2"/>
       <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
-    </row>
-    <row r="68" ht="17" customHeight="1" spans="1:5">
+    </row>
+    <row r="68" ht="17" customHeight="1" spans="1:4">
       <c r="A68" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B68" s="2"/>
-      <c r="C68" s="5" t="s">
+      <c r="B68" s="5" t="s">
         <v>1112</v>
       </c>
+      <c r="C68" s="2"/>
       <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
-    </row>
-    <row r="69" ht="17" customHeight="1" spans="1:5">
+    </row>
+    <row r="69" ht="17" customHeight="1" spans="1:4">
       <c r="A69" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B69" s="2"/>
-      <c r="C69" s="5" t="s">
+      <c r="B69" s="5" t="s">
         <v>1113</v>
       </c>
+      <c r="C69" s="2"/>
       <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
-    </row>
-    <row r="70" ht="17" customHeight="1" spans="1:5">
+    </row>
+    <row r="70" ht="17" customHeight="1" spans="1:4">
       <c r="A70" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B70" s="2"/>
-      <c r="C70" s="5" t="s">
+      <c r="B70" s="5" t="s">
         <v>1114</v>
       </c>
+      <c r="C70" s="2"/>
       <c r="D70" s="2"/>
-      <c r="E70" s="2"/>
-    </row>
-    <row r="71" ht="17" customHeight="1" spans="1:5">
+    </row>
+    <row r="71" ht="17" customHeight="1" spans="1:4">
       <c r="A71" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="B71" s="2"/>
-      <c r="C71" s="4"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="2"/>
       <c r="D71" s="2"/>
-      <c r="E71" s="2"/>
-    </row>
-    <row r="72" ht="17" customHeight="1" spans="1:5">
+    </row>
+    <row r="72" ht="17" customHeight="1" spans="1:4">
       <c r="A72" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B72" s="2"/>
-      <c r="C72" s="4"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="2"/>
       <c r="D72" s="2"/>
-      <c r="E72" s="2"/>
-    </row>
-    <row r="73" ht="17" customHeight="1" spans="1:5">
+    </row>
+    <row r="73" ht="17" customHeight="1" spans="1:4">
       <c r="A73" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B73" s="2"/>
-      <c r="C73" s="5" t="s">
+      <c r="B73" s="5" t="s">
         <v>1115</v>
       </c>
+      <c r="C73" s="2"/>
       <c r="D73" s="2"/>
-      <c r="E73" s="2"/>
-    </row>
-    <row r="74" ht="17" customHeight="1" spans="1:5">
+    </row>
+    <row r="74" ht="17" customHeight="1" spans="1:4">
       <c r="A74" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="B74" s="2"/>
-      <c r="C74" s="4"/>
+      <c r="B74" s="4"/>
+      <c r="C74" s="2"/>
       <c r="D74" s="2"/>
-      <c r="E74" s="2"/>
-    </row>
-    <row r="75" ht="17" customHeight="1" spans="1:5">
+    </row>
+    <row r="75" ht="17" customHeight="1" spans="1:4">
       <c r="A75" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B75" s="2"/>
-      <c r="C75" s="4"/>
+      <c r="B75" s="4"/>
+      <c r="C75" s="2"/>
       <c r="D75" s="2"/>
-      <c r="E75" s="2"/>
-    </row>
-    <row r="76" ht="17" customHeight="1" spans="1:5">
+    </row>
+    <row r="76" ht="17" customHeight="1" spans="1:4">
       <c r="A76" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="B76" s="2"/>
-      <c r="C76" s="4"/>
+      <c r="B76" s="4"/>
+      <c r="C76" s="2"/>
       <c r="D76" s="2"/>
-      <c r="E76" s="2"/>
-    </row>
-    <row r="77" ht="17" customHeight="1" spans="1:5">
+    </row>
+    <row r="77" ht="17" customHeight="1" spans="1:4">
       <c r="A77" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B77" s="2"/>
-      <c r="C77" s="5" t="s">
+      <c r="B77" s="5" t="s">
         <v>1116</v>
       </c>
+      <c r="C77" s="2"/>
       <c r="D77" s="2"/>
-      <c r="E77" s="2"/>
-    </row>
-    <row r="78" ht="17" customHeight="1" spans="1:5">
+    </row>
+    <row r="78" ht="17" customHeight="1" spans="1:4">
       <c r="A78" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="B78" s="2"/>
-      <c r="C78" s="4"/>
+      <c r="B78" s="4"/>
+      <c r="C78" s="2"/>
       <c r="D78" s="2"/>
-      <c r="E78" s="2"/>
-    </row>
-    <row r="79" ht="17" customHeight="1" spans="1:5">
+    </row>
+    <row r="79" ht="17" customHeight="1" spans="1:4">
       <c r="A79" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="B79" s="2"/>
-      <c r="C79" s="5" t="s">
+      <c r="B79" s="5" t="s">
         <v>1117</v>
       </c>
+      <c r="C79" s="2"/>
       <c r="D79" s="2"/>
-      <c r="E79" s="2"/>
-    </row>
-    <row r="80" ht="17" customHeight="1" spans="1:5">
+    </row>
+    <row r="80" ht="17" customHeight="1" spans="1:4">
       <c r="A80" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B80" s="3">
-        <v>1</v>
-      </c>
-      <c r="C80" s="5" t="s">
+      <c r="B80" s="5" t="s">
         <v>1118</v>
       </c>
+      <c r="C80" s="2"/>
       <c r="D80" s="2"/>
-      <c r="E80" s="2"/>
-    </row>
-    <row r="81" ht="17" customHeight="1" spans="1:5">
+    </row>
+    <row r="81" ht="17" customHeight="1" spans="1:4">
       <c r="A81" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="B81" s="3">
-        <v>2</v>
-      </c>
-      <c r="C81" s="5" t="s">
+      <c r="B81" s="5" t="s">
         <v>1119</v>
       </c>
+      <c r="C81" s="2"/>
       <c r="D81" s="2"/>
-      <c r="E81" s="2"/>
-    </row>
-    <row r="82" ht="17" customHeight="1" spans="1:5">
+    </row>
+    <row r="82" ht="17" customHeight="1" spans="1:4">
       <c r="A82" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="B82" s="2"/>
-      <c r="C82" s="5" t="s">
+      <c r="B82" s="5" t="s">
         <v>1120</v>
       </c>
+      <c r="C82" s="2"/>
       <c r="D82" s="2"/>
-      <c r="E82" s="2"/>
-    </row>
-    <row r="83" ht="17" customHeight="1" spans="1:5">
+    </row>
+    <row r="83" ht="17" customHeight="1" spans="1:4">
       <c r="A83" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="B83" s="2"/>
-      <c r="C83" s="5" t="s">
+      <c r="B83" s="5" t="s">
         <v>1121</v>
       </c>
+      <c r="C83" s="2"/>
       <c r="D83" s="2"/>
-      <c r="E83" s="2"/>
-    </row>
-    <row r="84" ht="17" customHeight="1" spans="1:5">
+    </row>
+    <row r="84" ht="17" customHeight="1" spans="1:4">
       <c r="A84" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="B84" s="2"/>
-      <c r="C84" s="5" t="s">
+      <c r="B84" s="5" t="s">
         <v>1122</v>
       </c>
+      <c r="C84" s="2"/>
       <c r="D84" s="2"/>
-      <c r="E84" s="2"/>
-    </row>
-    <row r="85" ht="17" customHeight="1" spans="1:5">
+    </row>
+    <row r="85" ht="17" customHeight="1" spans="1:4">
       <c r="A85" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="B85" s="2"/>
-      <c r="C85" s="5" t="s">
+      <c r="B85" s="5" t="s">
         <v>1123</v>
       </c>
+      <c r="C85" s="2"/>
       <c r="D85" s="2"/>
-      <c r="E85" s="2"/>
-    </row>
-    <row r="86" ht="17" customHeight="1" spans="1:5">
+    </row>
+    <row r="86" ht="17" customHeight="1" spans="1:4">
       <c r="A86" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="B86" s="2"/>
-      <c r="C86" s="5" t="s">
+      <c r="B86" s="5" t="s">
         <v>1124</v>
       </c>
+      <c r="C86" s="2"/>
       <c r="D86" s="2"/>
-      <c r="E86" s="2"/>
-    </row>
-    <row r="87" ht="17" customHeight="1" spans="1:5">
+    </row>
+    <row r="87" ht="17" customHeight="1" spans="1:4">
       <c r="A87" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="B87" s="2"/>
-      <c r="C87" s="5" t="s">
+      <c r="B87" s="5" t="s">
         <v>1123</v>
       </c>
+      <c r="C87" s="2"/>
       <c r="D87" s="2"/>
-      <c r="E87" s="2"/>
-    </row>
-    <row r="88" ht="17" customHeight="1" spans="1:5">
+    </row>
+    <row r="88" ht="17" customHeight="1" spans="1:4">
       <c r="A88" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="B88" s="2"/>
-      <c r="C88" s="5" t="s">
+      <c r="B88" s="5" t="s">
         <v>1124</v>
       </c>
+      <c r="C88" s="2"/>
       <c r="D88" s="2"/>
-      <c r="E88" s="2"/>
-    </row>
-    <row r="89" ht="17" customHeight="1" spans="1:5">
+    </row>
+    <row r="89" ht="17" customHeight="1" spans="1:4">
       <c r="A89" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="B89" s="2"/>
-      <c r="C89" s="5" t="s">
+      <c r="B89" s="5" t="s">
         <v>1123</v>
       </c>
+      <c r="C89" s="2"/>
       <c r="D89" s="2"/>
-      <c r="E89" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
